--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="17580" windowHeight="9345"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="20960" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
   <si>
     <t>Open Up</t>
   </si>
@@ -45,16 +50,7 @@
     <t>Summe Verbindungselemente</t>
   </si>
   <si>
-    <t>Rollen</t>
-  </si>
-  <si>
-    <t>BPMN</t>
-  </si>
-  <si>
     <t>Plan and manage iteration imperativ -Inception</t>
-  </si>
-  <si>
-    <t>Artefakte</t>
   </si>
   <si>
     <t>Identify and Refine Requirements-Elaboration</t>
@@ -85,12 +81,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,8 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -128,6 +140,2060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$9:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$9:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$9:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2103625800"/>
+        <c:axId val="2103630152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103625800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103630152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2103630152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103625800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$85:$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$85:$B$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$85:$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$85:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2137362920"/>
+        <c:axId val="2137865112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137362920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137865112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137865112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137362920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2136837480"/>
+        <c:axId val="2133935640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136837480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133935640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133935640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2136837480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$21:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2103796728"/>
+        <c:axId val="2135561288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103796728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135561288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135561288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103796728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$25:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$25:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2135002008"/>
+        <c:axId val="2135003416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2135002008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135003416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135003416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135002008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$40:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$41:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2134857640"/>
+        <c:axId val="2131805928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134857640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131805928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2131805928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134857640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$45:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$45:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2147373128"/>
+        <c:axId val="-2147369944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2147373128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147369944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2147369944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147373128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$61:$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$62:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2138693816"/>
+        <c:axId val="2138375240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2138693816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138375240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138375240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138693816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$66:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$66:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="800000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$66:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$66:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2137785096"/>
+        <c:axId val="2137380024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137785096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137380024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137380024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137785096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$80:$C$80</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$81:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2135778408"/>
+        <c:axId val="-2146968488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2135778408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146968488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2146968488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135778408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Diagramm 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,28 +2483,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="23">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -446,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -457,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -465,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -476,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -484,7 +2550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -492,7 +2558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -505,31 +2571,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -537,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -548,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -556,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -567,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -575,7 +2622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -583,7 +2630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -596,50 +2643,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3">
       <c r="B40" t="s">
         <v>1</v>
       </c>
@@ -647,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -658,7 +2667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -666,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -677,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -688,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -696,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -709,50 +2718,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="B61" t="s">
         <v>1</v>
       </c>
@@ -760,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -771,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
         <v>1</v>
       </c>
@@ -779,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -790,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -801,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -809,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -822,50 +2793,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -873,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -884,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="B84" t="s">
         <v>1</v>
       </c>
@@ -892,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -903,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -914,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -922,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -935,55 +2868,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="B102" t="s">
         <v>1</v>
       </c>
@@ -991,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +2935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -1053,50 +2948,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117">
-        <v>5</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="B121" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +2972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="B125" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +3010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -1166,50 +3023,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136">
-        <v>14</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="B144" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +3085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -1279,50 +3098,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="B160" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +3160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -1392,46 +3173,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>9</v>
-      </c>
-      <c r="B172">
-        <v>2</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175">
-        <v>8</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1441,9 +3190,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1453,8 +3207,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="20960" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
   <si>
     <t>Open Up</t>
   </si>
@@ -76,12 +76,30 @@
   <si>
     <t>Berichtswesen</t>
   </si>
+  <si>
+    <t>Summe Elemente gesamt</t>
+  </si>
+  <si>
+    <t>Phasen Open Up</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +121,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,15 +162,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="57">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -156,10 +310,46 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lösungsinkrement entwickeln</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -180,38 +370,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$12</c:f>
+              <c:f>Tabelle1!$A$9:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$B$12</c:f>
+              <c:f>Tabelle1!$B$9:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -232,40 +434,91 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0142857142857143"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.92122703043737E-17"/>
+                  <c:y val="-0.00714285714285714"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$12</c:f>
+              <c:f>Tabelle1!$A$9:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$9:$C$12</c:f>
+              <c:f>Tabelle1!$C$9:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -273,18 +526,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2103625800"/>
-        <c:axId val="2103630152"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2114844696"/>
+        <c:axId val="2122915496"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2103625800"/>
+        <c:axId val="2114844696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103630152"/>
+        <c:crossAx val="2122915496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -301,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103630152"/>
+        <c:axId val="2122915496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103625800"/>
+        <c:crossAx val="2114844696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -348,10 +603,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Transition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -360,7 +648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$84</c:f>
+              <c:f>Tabelle1!$B$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,38 +660,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$85:$A$88</c:f>
+              <c:f>Tabelle1!$A$151:$A$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$85:$B$88</c:f>
+              <c:f>Tabelle1!$B$151:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                <c:pt idx="2">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +714,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$84</c:f>
+              <c:f>Tabelle1!$C$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -424,63 +724,94 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$85:$A$88</c:f>
+              <c:f>Tabelle1!$A$151:$A$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$85:$C$88</c:f>
+              <c:f>Tabelle1!$C$151:$C$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,18 +819,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2137362920"/>
-        <c:axId val="2137865112"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2122660360"/>
+        <c:axId val="2122328936"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2137362920"/>
+        <c:axId val="2122660360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137865112"/>
+        <c:crossAx val="2122328936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -516,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137865112"/>
+        <c:axId val="2122328936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +860,258 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137362920"/>
+        <c:crossAx val="2122660360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Iteration planen und managen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$25:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2099371752"/>
+        <c:axId val="2105268424"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2099371752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105268424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105268424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2099371752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -564,13 +1148,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Iteration planen und managen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -579,51 +1192,128 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$5</c:f>
+              <c:f>Tabelle1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
+                  <c:v>BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$4:$C$4</c:f>
+              <c:f>Tabelle1!$A$25:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ConDec</c:v>
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$C$5</c:f>
+              <c:f>Tabelle1!$B$25:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,18 +1321,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2136837480"/>
-        <c:axId val="2133935640"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2105059096"/>
+        <c:axId val="2122370440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2136837480"/>
+        <c:axId val="2105059096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +1343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133935640"/>
+        <c:crossAx val="2122370440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -659,7 +1351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133935640"/>
+        <c:axId val="2122370440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,7 +1362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136837480"/>
+        <c:crossAx val="2105059096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,13 +1399,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Anforderungen identifizieren und verfeinern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -722,50 +1443,154 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$21</c:f>
+              <c:f>Tabelle1!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
+                  <c:v>BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$20:$C$20</c:f>
+              <c:f>Tabelle1!$A$45:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ConDec</c:v>
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$21:$C$21</c:f>
+              <c:f>Tabelle1!$B$45:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.39643202579108E-17"/>
+                  <c:y val="-0.0151515151515151"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$45:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$45:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,18 +1599,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2103796728"/>
-        <c:axId val="2135561288"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2114738648"/>
+        <c:axId val="2117281768"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2103796728"/>
+        <c:axId val="2114738648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +1621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135561288"/>
+        <c:crossAx val="2117281768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135561288"/>
+        <c:axId val="2117281768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103796728"/>
+        <c:crossAx val="2114738648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -849,10 +1676,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Release deployen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -861,7 +1721,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$24</c:f>
+              <c:f>Tabelle1!$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,38 +1733,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$28</c:f>
+              <c:f>Tabelle1!$A$66:$A$71</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25:$B$28</c:f>
+              <c:f>Tabelle1!$B$66:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +1787,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$24</c:f>
+              <c:f>Tabelle1!$C$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -925,60 +1797,55 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$28</c:f>
+              <c:f>Tabelle1!$A$66:$A$71</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$25:$C$28</c:f>
+              <c:f>Tabelle1!$C$66:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,18 +1853,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135002008"/>
-        <c:axId val="2135003416"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2119789656"/>
+        <c:axId val="2122160440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2135002008"/>
+        <c:axId val="2119789656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135003416"/>
+        <c:crossAx val="2122160440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1014,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135003416"/>
+        <c:axId val="2122160440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135002008"/>
+        <c:crossAx val="2119789656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,13 +1931,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Produktdokumentation entwickeln</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1077,51 +1975,131 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$41</c:f>
+              <c:f>Tabelle1!$B$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
+                  <c:v>BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$40:$C$40</c:f>
+              <c:f>Tabelle1!$A$85:$A$90</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ConDec</c:v>
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$41:$C$41</c:f>
+              <c:f>Tabelle1!$B$85:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$85:$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$85:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,18 +2107,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2134857640"/>
-        <c:axId val="2131805928"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2116090664"/>
+        <c:axId val="2123205240"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2134857640"/>
+        <c:axId val="2116090664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +2129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131805928"/>
+        <c:crossAx val="2123205240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1157,7 +2137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131805928"/>
+        <c:axId val="2123205240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134857640"/>
+        <c:crossAx val="2116090664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1204,10 +2184,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Phasen Open UP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1216,7 +2229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$44</c:f>
+              <c:f>Tabelle1!$B$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1228,38 +2241,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$45:$A$48</c:f>
+              <c:f>Tabelle1!$A$107:$A$112</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$45:$B$48</c:f>
+              <c:f>Tabelle1!$B$107:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +2295,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$44</c:f>
+              <c:f>Tabelle1!$C$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,63 +2305,94 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00277777777777778"/>
+                  <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$45:$A$48</c:f>
+              <c:f>Tabelle1!$A$107:$A$112</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$45:$C$48</c:f>
+              <c:f>Tabelle1!$C$107:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,18 +2400,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2147373128"/>
-        <c:axId val="-2147369944"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2119874584"/>
+        <c:axId val="2120660200"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2147373128"/>
+        <c:axId val="2119874584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147369944"/>
+        <c:crossAx val="2120660200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147369944"/>
+        <c:axId val="2120660200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147373128"/>
+        <c:crossAx val="2119874584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,13 +2478,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Inception</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1435,51 +2522,170 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$62</c:f>
+              <c:f>Tabelle1!$B$117</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
+                  <c:v>BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$61:$C$61</c:f>
+              <c:f>Tabelle1!$A$118:$A$123</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ConDec</c:v>
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$62:$C$62</c:f>
+              <c:f>Tabelle1!$B$118:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0277777777777777"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0277777777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$118:$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$118:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,18 +2693,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2138693816"/>
-        <c:axId val="2138375240"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2123899512"/>
+        <c:axId val="2122926936"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2138693816"/>
+        <c:axId val="2123899512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +2715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138375240"/>
+        <c:crossAx val="2122926936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +2723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138375240"/>
+        <c:axId val="2122926936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138693816"/>
+        <c:crossAx val="2123899512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,10 +2770,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Elaboration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1574,7 +2815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$65</c:f>
+              <c:f>Tabelle1!$B$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1586,38 +2827,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$66:$A$69</c:f>
+              <c:f>Tabelle1!$A$128:$A$133</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$66:$B$69</c:f>
+              <c:f>Tabelle1!$B$128:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +2881,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$65</c:f>
+              <c:f>Tabelle1!$C$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,49 +2890,95 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="800000"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00555555555555555"/>
+                  <c:y val="-0.0324074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.00925925925925926"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$66:$A$69</c:f>
+              <c:f>Tabelle1!$A$128:$A$133</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Gateways</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Sequenzfluss</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Constraints</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$66:$C$69</c:f>
+              <c:f>Tabelle1!$C$128:$C$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,18 +2986,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2137785096"/>
-        <c:axId val="2137380024"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2120433992"/>
+        <c:axId val="2120322360"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2137785096"/>
+        <c:axId val="2120433992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137380024"/>
+        <c:crossAx val="2120322360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137380024"/>
+        <c:axId val="2120322360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +3027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137785096"/>
+        <c:crossAx val="2120433992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,13 +3064,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Construction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1778,51 +3108,170 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$81</c:f>
+              <c:f>Tabelle1!$B$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
+                  <c:v>BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$80:$C$80</c:f>
+              <c:f>Tabelle1!$A$141:$A$146</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ConDec</c:v>
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$81:$C$81</c:f>
+              <c:f>Tabelle1!$B$141:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$141:$A$146</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$141:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,18 +3279,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135778408"/>
-        <c:axId val="-2146968488"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="2105223416"/>
+        <c:axId val="2102546168"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2135778408"/>
+        <c:axId val="2105223416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +3301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146968488"/>
+        <c:crossAx val="2102546168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +3309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146968488"/>
+        <c:axId val="2102546168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +3320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135778408"/>
+        <c:crossAx val="2105223416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1895,20 +3346,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1925,20 +3376,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1956,19 +3407,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="15" name="Diagramm 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1985,20 +3436,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvPr id="16" name="Diagramm 15"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2015,20 +3466,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvPr id="17" name="Diagramm 16"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2045,20 +3496,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvPr id="18" name="Diagramm 17"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2075,20 +3526,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvPr id="19" name="Diagramm 18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2105,20 +3556,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvPr id="21" name="Diagramm 20"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2135,20 +3586,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Diagramm 12"/>
+        <xdr:cNvPr id="22" name="Diagramm 21"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2165,20 +3616,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Diagramm 13"/>
+        <xdr:cNvPr id="23" name="Diagramm 22"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2188,6 +3639,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Diagramm 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2483,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
+      <selection activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2499,11 +3980,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>1</v>
@@ -2512,15 +3988,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2533,66 +4003,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B13">
+        <f>SUM(B10:B12)</f>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C12)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <f>SUM(B9:B11)</f>
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C11)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C9:C12)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2605,66 +4088,79 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
+      <c r="B29">
+        <f>SUM(B26:B28)</f>
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C28)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
         <f>SUM(B25:B27)</f>
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <f>SUM(C27)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C25:C28)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s">
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2677,21 +4173,21 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2699,47 +4195,60 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B48">
+      <c r="B49">
+        <f>SUM(B46:B48)</f>
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f>SUM(C48)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
         <f>SUM(B45:B47)</f>
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <f>SUM(C47)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C45:C48)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="B61" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2752,21 +4261,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
         <v>5</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
       <c r="C66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2774,47 +4283,60 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B69">
+      <c r="B70">
+        <f>SUM(B67:B69)</f>
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <f>SUM(C69)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
         <f>SUM(B66:B68)</f>
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <f>SUM(C68)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <f>SUM(C66:C69)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="B80" t="s">
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2827,21 +4349,21 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2849,52 +4371,60 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
         <v>8</v>
       </c>
-      <c r="B88">
-        <f>SUM(B85:B87)</f>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <f>SUM(B86:B88)</f>
         <v>7</v>
       </c>
-      <c r="C88">
-        <f>SUM(C87)</f>
+      <c r="C89">
+        <f>SUM(C88)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="3">
+        <f>SUM(B85:B88)</f>
+        <v>11</v>
+      </c>
+      <c r="C90" s="3">
+        <f>SUM(C85:C88)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2907,21 +4437,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2929,252 +4459,685 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>8</v>
       </c>
-      <c r="B110">
-        <f>SUM(B107:B109)</f>
+      <c r="B111">
+        <f>SUM(B108:B110)</f>
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <f>SUM(C110)</f>
         <v>6</v>
       </c>
-      <c r="C110">
-        <f>SUM(C109)</f>
-        <v>9</v>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="3">
+        <f>SUM(B107:B110)</f>
+        <v>29</v>
+      </c>
+      <c r="C112" s="3">
+        <f>SUM(C107:C110)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>14</v>
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <f>SUM(B119:B121)</f>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2</v>
+        <f>SUM(C121)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="3">
+        <f>SUM(B118:B121)</f>
+        <v>19</v>
+      </c>
+      <c r="C123" s="3">
+        <f>SUM(C118:C121)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>8</v>
       </c>
-      <c r="B129">
-        <f>SUM(B126:B128)</f>
+      <c r="B132">
+        <f>SUM(B129:B131)</f>
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <f>SUM(C131)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="3">
+        <f>SUM(B128:B131)</f>
+        <v>22</v>
+      </c>
+      <c r="C133" s="3">
+        <f>SUM(C128:C131)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="3">
+        <v>6</v>
+      </c>
+      <c r="C141" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="3">
+        <v>14</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="3">
+        <f>SUM(B142:B144)</f>
+        <v>18</v>
+      </c>
+      <c r="C145" s="3">
+        <f>SUM(C142:C144)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="3">
+        <f>SUM(B141:B144)</f>
+        <v>24</v>
+      </c>
+      <c r="C146" s="3">
+        <f>SUM(C141:C144)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="3">
+        <v>8</v>
+      </c>
+      <c r="C151" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="3">
+        <v>18</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="3">
+        <f>SUM(B152:B154)</f>
+        <v>20</v>
+      </c>
+      <c r="C155" s="3">
+        <f>SUM(C152:C154)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="3">
+        <f>SUM(B151:B153)</f>
+        <v>28</v>
+      </c>
+      <c r="C156" s="3">
+        <f>SUM(C151:C154)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <f>SUM(B263:B265)</f>
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <f>SUM(C265)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>9</v>
+      </c>
+      <c r="C278">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283">
         <v>10</v>
       </c>
-      <c r="C129">
-        <f>SUM(C128)</f>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285">
+        <f>SUM(B282:B284)</f>
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <f>SUM(C284)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="B140" t="s">
+    <row r="296" spans="1:3">
+      <c r="B296" t="s">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C296" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
         <v>4</v>
       </c>
-      <c r="B141">
+      <c r="B297">
         <v>11</v>
       </c>
-      <c r="C141">
+      <c r="C297">
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="B144" t="s">
+    <row r="300" spans="1:3">
+      <c r="B300" t="s">
         <v>1</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C300" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
         <v>5</v>
       </c>
-      <c r="B145">
+      <c r="B301">
         <v>0</v>
       </c>
-      <c r="C145">
+      <c r="C301">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
         <v>7</v>
       </c>
-      <c r="B146">
+      <c r="B302">
         <v>12</v>
       </c>
-      <c r="C146">
+      <c r="C302">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
         <v>6</v>
       </c>
-      <c r="C147">
+      <c r="C303">
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
         <v>8</v>
       </c>
-      <c r="B148">
-        <f>SUM(B145:B147)</f>
+      <c r="B304">
+        <f>SUM(B301:B303)</f>
         <v>12</v>
       </c>
-      <c r="C148">
-        <f>SUM(C147)</f>
+      <c r="C304">
+        <f>SUM(C303)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="B160" t="s">
+    <row r="316" spans="1:3">
+      <c r="B316" t="s">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C316" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
         <v>4</v>
       </c>
-      <c r="B161">
+      <c r="B317">
         <v>9</v>
       </c>
-      <c r="C161">
+      <c r="C317">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="B164" t="s">
+    <row r="320" spans="1:3">
+      <c r="B320" t="s">
         <v>1</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C320" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
         <v>5</v>
       </c>
-      <c r="B165">
+      <c r="B321">
         <v>3</v>
       </c>
-      <c r="C165">
+      <c r="C321">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
         <v>7</v>
       </c>
-      <c r="B166">
+      <c r="B322">
         <v>15</v>
       </c>
-      <c r="C166">
+      <c r="C322">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
         <v>6</v>
       </c>
-      <c r="C167">
+      <c r="C323">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
         <v>8</v>
       </c>
-      <c r="B168">
-        <f>SUM(B165:B167)</f>
+      <c r="B324">
+        <f>SUM(B321:B323)</f>
         <v>18</v>
       </c>
-      <c r="C168">
-        <f>SUM(C167)</f>
+      <c r="C324">
+        <f>SUM(C323)</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="2060" yWindow="1300" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
   <si>
     <t>Open Up</t>
   </si>
@@ -94,12 +94,15 @@
   <si>
     <t>Transition</t>
   </si>
+  <si>
+    <t>Phasen Open Up-inception</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +147,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,14 +230,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="67">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -256,6 +277,11 @@
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -284,6 +310,11 @@
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,7 +485,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043737E-17"/>
+                  <c:x val="-8.92122703043738E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -534,12 +565,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2114844696"/>
-        <c:axId val="2122915496"/>
+        <c:axId val="2146921304"/>
+        <c:axId val="2142062712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2114844696"/>
+        <c:axId val="2146921304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122915496"/>
+        <c:crossAx val="2142062712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122915496"/>
+        <c:axId val="2142062712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114844696"/>
+        <c:crossAx val="2146921304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -827,12 +858,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122660360"/>
-        <c:axId val="2122328936"/>
+        <c:axId val="2118021768"/>
+        <c:axId val="2118024552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122660360"/>
+        <c:axId val="2118021768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122328936"/>
+        <c:crossAx val="2118024552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122328936"/>
+        <c:axId val="2118024552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122660360"/>
+        <c:crossAx val="2118021768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,12 +1109,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2099371752"/>
-        <c:axId val="2105268424"/>
+        <c:axId val="2118060504"/>
+        <c:axId val="2118063480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2099371752"/>
+        <c:axId val="2118060504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105268424"/>
+        <c:crossAx val="2118063480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105268424"/>
+        <c:axId val="2118063480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1142,590 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099371752"/>
+        <c:crossAx val="2118060504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Scrum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$329</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$330:$A$335</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$330:$B$335</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$329</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0277777777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$330:$A$335</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$330:$C$335</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2146731272"/>
+        <c:axId val="2146693368"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2146731272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146693368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2146693368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146731272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Inception gesamt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$168:$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$168:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00555555555555555"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$168:$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$168:$C$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2129085288"/>
+        <c:axId val="-2103208712"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2129085288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103208712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2103208712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129085288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,12 +1943,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2105059096"/>
-        <c:axId val="2122370440"/>
+        <c:axId val="2146962728"/>
+        <c:axId val="2146965704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2105059096"/>
+        <c:axId val="2146962728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122370440"/>
+        <c:crossAx val="2146965704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122370440"/>
+        <c:axId val="2146965704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105059096"/>
+        <c:crossAx val="2146962728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,12 +2221,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2114738648"/>
-        <c:axId val="2117281768"/>
+        <c:axId val="2147003176"/>
+        <c:axId val="2147005960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2114738648"/>
+        <c:axId val="2147003176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +2235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117281768"/>
+        <c:crossAx val="2147005960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1629,7 +2243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117281768"/>
+        <c:axId val="2147005960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114738648"/>
+        <c:crossAx val="2147003176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1861,12 +2475,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2119789656"/>
-        <c:axId val="2122160440"/>
+        <c:axId val="2147042008"/>
+        <c:axId val="2147044984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2119789656"/>
+        <c:axId val="2147042008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +2489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122160440"/>
+        <c:crossAx val="2147044984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122160440"/>
+        <c:axId val="2147044984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +2508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119789656"/>
+        <c:crossAx val="2147042008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2115,12 +2729,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2116090664"/>
-        <c:axId val="2123205240"/>
+        <c:axId val="2147082024"/>
+        <c:axId val="2147085000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2116090664"/>
+        <c:axId val="2147082024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123205240"/>
+        <c:crossAx val="2147085000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2137,7 +2751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123205240"/>
+        <c:axId val="2147085000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116090664"/>
+        <c:crossAx val="2147082024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,12 +3022,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2119874584"/>
-        <c:axId val="2120660200"/>
+        <c:axId val="2142121208"/>
+        <c:axId val="2147104808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2119874584"/>
+        <c:axId val="2142121208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +3036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120660200"/>
+        <c:crossAx val="2147104808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +3044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120660200"/>
+        <c:axId val="2147104808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119874584"/>
+        <c:crossAx val="2142121208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2701,12 +3315,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2123899512"/>
-        <c:axId val="2122926936"/>
+        <c:axId val="-2130522920"/>
+        <c:axId val="2142122216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2123899512"/>
+        <c:axId val="-2130522920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +3329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122926936"/>
+        <c:crossAx val="2142122216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2723,7 +3337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122926936"/>
+        <c:axId val="2142122216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +3348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123899512"/>
+        <c:crossAx val="-2130522920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,12 +3608,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2120433992"/>
-        <c:axId val="2120322360"/>
+        <c:axId val="2117938536"/>
+        <c:axId val="2117941320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2120433992"/>
+        <c:axId val="2117938536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120322360"/>
+        <c:crossAx val="2117941320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120322360"/>
+        <c:axId val="2117941320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120433992"/>
+        <c:crossAx val="2117938536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3287,12 +3901,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2105223416"/>
-        <c:axId val="2102546168"/>
+        <c:axId val="2117980248"/>
+        <c:axId val="2117983032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2105223416"/>
+        <c:axId val="2117980248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,7 +3915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102546168"/>
+        <c:crossAx val="2117983032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3309,7 +3923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102546168"/>
+        <c:axId val="2117983032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105223416"/>
+        <c:crossAx val="2117980248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3674,6 +4288,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3964,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C324"/>
+  <dimension ref="A1:C335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
-      <selection activeCell="O149" sqref="O149"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4419,14 +5093,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
         <v>1</v>
@@ -4830,6 +5496,146 @@
         <v>16</v>
       </c>
     </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>43</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <f>SUM(B169:B171)</f>
+        <v>51</v>
+      </c>
+      <c r="C172">
+        <f>SUM(C169:C171)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="3">
+        <f>SUM(B168:B171)</f>
+        <v>70</v>
+      </c>
+      <c r="C173" s="3">
+        <f>SUM(C168:C171)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+    </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>13</v>
@@ -5133,6 +5939,78 @@
       <c r="C324">
         <f>SUM(C323)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330">
+        <v>12</v>
+      </c>
+      <c r="C330">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>8</v>
+      </c>
+      <c r="B334">
+        <f>SUM(B331:B333)</f>
+        <v>28</v>
+      </c>
+      <c r="C334">
+        <f>SUM(C333)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>18</v>
+      </c>
+      <c r="B335">
+        <f>SUM(B330:B332)</f>
+        <v>40</v>
+      </c>
+      <c r="C335">
+        <f>SUM(C330:C333)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1300" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="26">
   <si>
     <t>Open Up</t>
   </si>
@@ -62,15 +62,6 @@
     <t>Develop Product Documentation</t>
   </si>
   <si>
-    <t>V-Modell XT</t>
-  </si>
-  <si>
-    <t>Planung und Steuerung</t>
-  </si>
-  <si>
-    <t>Angebots- und Vertragswesen</t>
-  </si>
-  <si>
     <t>Systementwurf</t>
   </si>
   <si>
@@ -96,6 +87,18 @@
   </si>
   <si>
     <t>Phasen Open Up-inception</t>
+  </si>
+  <si>
+    <t>V-Modell</t>
+  </si>
+  <si>
+    <t>Inkrementell</t>
+  </si>
+  <si>
+    <t>Anzahl unterschiedlicher Verbindungselemente</t>
+  </si>
+  <si>
+    <t>Scrum</t>
   </si>
 </sst>
 </file>
@@ -172,8 +175,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,7 +275,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="91">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -282,6 +309,18 @@
     <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -315,6 +354,18 @@
     <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,9 +452,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$14</c:f>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -420,6 +471,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -427,10 +481,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$B$14</c:f>
+              <c:f>Tabelle1!$B$9:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -444,6 +498,9 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -485,7 +542,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043738E-17"/>
+                  <c:x val="-8.9212270304374E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -506,9 +563,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$14</c:f>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -525,6 +582,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -532,10 +592,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$9:$C$14</c:f>
+              <c:f>Tabelle1!$C$9:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -549,6 +609,9 @@
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,12 +628,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2146921304"/>
-        <c:axId val="2142062712"/>
+        <c:axId val="-2116804392"/>
+        <c:axId val="-2116801608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2146921304"/>
+        <c:axId val="-2116804392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142062712"/>
+        <c:crossAx val="-2116801608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -587,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142062712"/>
+        <c:axId val="-2116801608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146921304"/>
+        <c:crossAx val="-2116804392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,7 +742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$150</c:f>
+              <c:f>Tabelle1!$B$159</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -691,9 +754,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$151:$A$156</c:f>
+              <c:f>Tabelle1!$A$160:$A$166</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -710,6 +773,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -717,10 +783,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$151:$B$156</c:f>
+              <c:f>Tabelle1!$B$160:$B$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
                 </c:pt>
@@ -734,6 +800,9 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -745,7 +814,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$150</c:f>
+              <c:f>Tabelle1!$C$159</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,9 +865,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$151:$A$156</c:f>
+              <c:f>Tabelle1!$A$160:$A$166</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -815,6 +884,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -822,10 +894,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$151:$C$156</c:f>
+              <c:f>Tabelle1!$C$160:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
                 </c:pt>
@@ -842,6 +914,9 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -858,12 +933,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2118021768"/>
-        <c:axId val="2118024552"/>
+        <c:axId val="-2119574232"/>
+        <c:axId val="-2119571448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2118021768"/>
+        <c:axId val="-2119574232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118024552"/>
+        <c:crossAx val="-2119571448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -880,7 +955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118024552"/>
+        <c:axId val="-2119571448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118021768"/>
+        <c:crossAx val="-2119574232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -972,7 +1047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$24</c:f>
+              <c:f>Tabelle1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,9 +1059,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:f>Tabelle1!$A$26:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1003,6 +1078,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1010,10 +1088,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25:$B$30</c:f>
+              <c:f>Tabelle1!$B$26:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -1027,6 +1105,9 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1038,7 +1119,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$24</c:f>
+              <c:f>Tabelle1!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1050,9 +1131,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:f>Tabelle1!$A$26:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1069,6 +1150,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1076,10 +1160,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$25:$C$30</c:f>
+              <c:f>Tabelle1!$C$26:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -1093,6 +1177,9 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1109,12 +1196,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2118060504"/>
-        <c:axId val="2118063480"/>
+        <c:axId val="-2117862728"/>
+        <c:axId val="-2117859752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2118060504"/>
+        <c:axId val="-2117862728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118063480"/>
+        <c:crossAx val="-2117859752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118063480"/>
+        <c:axId val="-2117859752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118060504"/>
+        <c:crossAx val="-2117862728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,6 +1252,1217 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Inception gesamt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$178:$A$184</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$178:$B$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00555555555555555"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$178:$A$184</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$178:$C$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2117764536"/>
+        <c:axId val="-2117761752"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2117764536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117761752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117761752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117764536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Systementwicklungsprojekt AG/AN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$249</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$250:$A$256</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$250:$B$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$249</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4679545254267E-17"/>
+                  <c:y val="-0.0181488203266788"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$250:$A$256</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$250:$C$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2117721672"/>
+        <c:axId val="-2117718888"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2117721672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117718888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117718888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117721672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Inkrementelle Entwicklung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$260</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$261:$A$267</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$261:$B$267</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$260</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526416E-16"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0208695652173913"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$261:$A$267</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$261:$C$267</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2117680296"/>
+        <c:axId val="-2117677512"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2117680296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117677512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117677512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117680296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Systementwurf</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$309</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$310:$A$316</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$310:$B$316</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$309</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$310:$A$316</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$310:$C$316</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2117641272"/>
+        <c:axId val="-2117638296"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2117641272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117638296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117638296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117641272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1223,11 +2521,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$329</c:f>
+              <c:f>Tabelle1!$B$342:$B$344</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPMN </c:v>
+                  <c:v>Scrum BPMN </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1235,9 +2533,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$330:$A$335</c:f>
+              <c:f>Tabelle1!$A$345:$A$351</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1254,6 +2552,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1261,24 +2562,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$330:$B$335</c:f>
+              <c:f>Tabelle1!$B$345:$B$351</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,11 +2593,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$329</c:f>
+              <c:f>Tabelle1!$C$342:$C$344</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ConDec</c:v>
+                  <c:v>Scrum ConDec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1301,26 +2605,11 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0185067526416E-16"/>
-                  <c:y val="-0.0185185185185186"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.0185067526416E-16"/>
-                  <c:y val="-0.0277777777777778"/>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0146252285191956"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1340,9 +2629,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$330:$A$335</c:f>
+              <c:f>Tabelle1!$A$345:$A$351</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1359,6 +2648,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1366,24 +2658,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$330:$C$335</c:f>
+              <c:f>Tabelle1!$C$345:$C$351</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,12 +2697,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2146731272"/>
-        <c:axId val="2146693368"/>
+        <c:axId val="-2131564408"/>
+        <c:axId val="-2120927992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2146731272"/>
+        <c:axId val="-2131564408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146693368"/>
+        <c:crossAx val="-2120927992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +2719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146693368"/>
+        <c:axId val="-2120927992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,300 +2730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146731272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Inception gesamt</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$B$167</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BPMN </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$168:$A$173</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gateways</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Constraints</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Summe Elemente gesamt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$168:$B$173</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$167</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ConDec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.00555555555555555"/>
-                  <c:y val="-0.0185185185185185"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.0185067526416E-16"/>
-                  <c:y val="-0.0231481481481481"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$168:$A$173</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Aktivitäten</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gateways</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Constraints</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Summe Elemente gesamt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$168:$C$173</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="-2129085288"/>
-        <c:axId val="-2103208712"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="-2129085288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103208712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2103208712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129085288"/>
+        <c:crossAx val="-2131564408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +2811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$24</c:f>
+              <c:f>Tabelle1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1818,9 +2823,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:f>Tabelle1!$A$26:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1837,6 +2842,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1844,10 +2852,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25:$B$30</c:f>
+              <c:f>Tabelle1!$B$26:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -1861,6 +2869,9 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1872,7 +2883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$24</c:f>
+              <c:f>Tabelle1!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1884,9 +2895,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$25:$A$30</c:f>
+              <c:f>Tabelle1!$A$26:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -1903,6 +2914,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1910,10 +2924,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$25:$C$30</c:f>
+              <c:f>Tabelle1!$C$26:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -1927,6 +2941,9 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1943,12 +2960,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2146962728"/>
-        <c:axId val="2146965704"/>
+        <c:axId val="-2116764456"/>
+        <c:axId val="-2116761480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2146962728"/>
+        <c:axId val="-2116764456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +2974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146965704"/>
+        <c:crossAx val="-2116761480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +2982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146965704"/>
+        <c:axId val="-2116761480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +2993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146962728"/>
+        <c:crossAx val="-2116764456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,7 +3074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$44</c:f>
+              <c:f>Tabelle1!$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2069,9 +3086,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$45:$A$50</c:f>
+              <c:f>Tabelle1!$A$47:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2088,6 +3105,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2095,10 +3115,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$45:$B$50</c:f>
+              <c:f>Tabelle1!$B$47:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2112,6 +3132,9 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2123,7 +3146,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$44</c:f>
+              <c:f>Tabelle1!$C$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2159,9 +3182,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$45:$A$50</c:f>
+              <c:f>Tabelle1!$A$47:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2178,6 +3201,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2185,10 +3211,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$45:$C$50</c:f>
+              <c:f>Tabelle1!$C$47:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2205,6 +3231,9 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2221,12 +3250,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2147003176"/>
-        <c:axId val="2147005960"/>
+        <c:axId val="-2116723128"/>
+        <c:axId val="-2116720344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2147003176"/>
+        <c:axId val="-2116723128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +3264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147005960"/>
+        <c:crossAx val="-2116720344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2243,7 +3272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147005960"/>
+        <c:axId val="-2116720344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +3283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147003176"/>
+        <c:crossAx val="-2116723128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,7 +3364,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$65</c:f>
+              <c:f>Tabelle1!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2347,9 +3376,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$66:$A$71</c:f>
+              <c:f>Tabelle1!$A$69:$A$75</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2366,6 +3395,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2373,10 +3405,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$66:$B$71</c:f>
+              <c:f>Tabelle1!$B$69:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -2390,6 +3422,9 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2401,7 +3436,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$65</c:f>
+              <c:f>Tabelle1!$C$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2413,9 +3448,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$66:$A$71</c:f>
+              <c:f>Tabelle1!$A$69:$A$75</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2432,6 +3467,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2439,10 +3477,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$66:$C$71</c:f>
+              <c:f>Tabelle1!$C$69:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -2459,6 +3497,9 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2475,12 +3516,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2147042008"/>
-        <c:axId val="2147044984"/>
+        <c:axId val="-2120004424"/>
+        <c:axId val="-2119767272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2147042008"/>
+        <c:axId val="-2120004424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +3530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147044984"/>
+        <c:crossAx val="-2119767272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2497,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147044984"/>
+        <c:axId val="-2119767272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,7 +3549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147042008"/>
+        <c:crossAx val="-2120004424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,7 +3630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$84</c:f>
+              <c:f>Tabelle1!$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2601,9 +3642,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$85:$A$90</c:f>
+              <c:f>Tabelle1!$A$89:$A$95</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2620,6 +3661,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2627,10 +3671,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$85:$B$90</c:f>
+              <c:f>Tabelle1!$B$89:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2644,6 +3688,9 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2655,7 +3702,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$84</c:f>
+              <c:f>Tabelle1!$C$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2667,9 +3714,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$85:$A$90</c:f>
+              <c:f>Tabelle1!$A$89:$A$95</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2686,6 +3733,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2693,10 +3743,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$85:$C$90</c:f>
+              <c:f>Tabelle1!$C$89:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2713,6 +3763,9 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2729,12 +3782,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2147082024"/>
-        <c:axId val="2147085000"/>
+        <c:axId val="-2132695400"/>
+        <c:axId val="-2119810696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2147082024"/>
+        <c:axId val="-2132695400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +3796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147085000"/>
+        <c:crossAx val="-2119810696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +3804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147085000"/>
+        <c:axId val="-2119810696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +3815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147082024"/>
+        <c:crossAx val="-2132695400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,7 +3896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$106</c:f>
+              <c:f>Tabelle1!$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2855,9 +3908,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$107:$A$112</c:f>
+              <c:f>Tabelle1!$A$112:$A$118</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2874,6 +3927,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2881,10 +3937,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$107:$B$112</c:f>
+              <c:f>Tabelle1!$B$112:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2898,6 +3954,9 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2909,7 +3968,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$106</c:f>
+              <c:f>Tabelle1!$C$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2960,9 +4019,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$107:$A$112</c:f>
+              <c:f>Tabelle1!$A$112:$A$118</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -2979,6 +4038,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2986,10 +4048,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$107:$C$112</c:f>
+              <c:f>Tabelle1!$C$112:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3006,6 +4068,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3022,12 +4087,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2142121208"/>
-        <c:axId val="2147104808"/>
+        <c:axId val="-2119867720"/>
+        <c:axId val="-2119864936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2142121208"/>
+        <c:axId val="-2119867720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +4101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147104808"/>
+        <c:crossAx val="-2119864936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3044,7 +4109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147104808"/>
+        <c:axId val="-2119864936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +4120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142121208"/>
+        <c:crossAx val="-2119867720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,7 +4201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$117</c:f>
+              <c:f>Tabelle1!$B$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3148,9 +4213,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$118:$A$123</c:f>
+              <c:f>Tabelle1!$A$124:$A$130</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3167,6 +4232,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3174,10 +4242,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$118:$B$123</c:f>
+              <c:f>Tabelle1!$B$124:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3191,6 +4259,9 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3202,7 +4273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$117</c:f>
+              <c:f>Tabelle1!$C$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3253,9 +4324,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$118:$A$123</c:f>
+              <c:f>Tabelle1!$A$124:$A$130</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3272,6 +4343,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3279,10 +4353,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$118:$C$123</c:f>
+              <c:f>Tabelle1!$C$124:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3299,6 +4373,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3315,12 +4392,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2130522920"/>
-        <c:axId val="2142122216"/>
+        <c:axId val="-2119696712"/>
+        <c:axId val="-2119693928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2130522920"/>
+        <c:axId val="-2119696712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,7 +4406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142122216"/>
+        <c:crossAx val="-2119693928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3337,7 +4414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142122216"/>
+        <c:axId val="-2119693928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,7 +4425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130522920"/>
+        <c:crossAx val="-2119696712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3429,7 +4506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$127</c:f>
+              <c:f>Tabelle1!$B$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3441,9 +4518,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$128:$A$133</c:f>
+              <c:f>Tabelle1!$A$135:$A$141</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3460,6 +4537,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3467,10 +4547,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$128:$B$133</c:f>
+              <c:f>Tabelle1!$B$135:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -3484,6 +4564,9 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3495,7 +4578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$127</c:f>
+              <c:f>Tabelle1!$C$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3546,9 +4629,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$128:$A$133</c:f>
+              <c:f>Tabelle1!$A$135:$A$141</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3565,6 +4648,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3572,10 +4658,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$128:$C$133</c:f>
+              <c:f>Tabelle1!$C$135:$C$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -3592,6 +4678,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3608,12 +4697,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2117938536"/>
-        <c:axId val="2117941320"/>
+        <c:axId val="-2119655832"/>
+        <c:axId val="-2119653048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2117938536"/>
+        <c:axId val="-2119655832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +4711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117941320"/>
+        <c:crossAx val="-2119653048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3630,7 +4719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117941320"/>
+        <c:axId val="-2119653048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,7 +4730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117938536"/>
+        <c:crossAx val="-2119655832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3722,7 +4811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$140</c:f>
+              <c:f>Tabelle1!$B$148</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3734,9 +4823,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$141:$A$146</c:f>
+              <c:f>Tabelle1!$A$149:$A$155</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3753,6 +4842,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3760,10 +4852,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$141:$B$146</c:f>
+              <c:f>Tabelle1!$B$149:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -3777,6 +4869,9 @@
                   <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3788,7 +4883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$140</c:f>
+              <c:f>Tabelle1!$C$148</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3839,9 +4934,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$141:$A$146</c:f>
+              <c:f>Tabelle1!$A$149:$A$155</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
@@ -3858,6 +4953,9 @@
                   <c:v>Summe Verbindungselemente</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3865,10 +4963,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$141:$C$146</c:f>
+              <c:f>Tabelle1!$C$149:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -3885,6 +4983,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3901,12 +5002,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2117980248"/>
-        <c:axId val="2117983032"/>
+        <c:axId val="-2119615176"/>
+        <c:axId val="-2119612392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2117980248"/>
+        <c:axId val="-2119615176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +5016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117983032"/>
+        <c:crossAx val="-2119612392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3923,7 +5024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117983032"/>
+        <c:axId val="-2119612392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +5035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117980248"/>
+        <c:crossAx val="-2119615176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3968,7 +5069,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3992,13 +5093,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4021,15 +5122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4050,16 +5151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4082,13 +5183,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4112,13 +5213,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4142,13 +5243,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4172,13 +5273,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4202,13 +5303,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4232,13 +5333,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4262,13 +5363,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4290,20 +5391,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4320,20 +5421,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4343,6 +5444,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4638,15 +5829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C335"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23">
@@ -4727,202 +5918,227 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <f>SUM(B9:B11)</f>
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f>SUM(C9:C12)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B26:B28)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <f>SUM(C28)</f>
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <f>SUM(B25:B27)</f>
+        <f>SUM(B27:B29)</f>
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C29)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B26:B28)</f>
         <v>26</v>
       </c>
-      <c r="C30">
-        <f>SUM(C25:C28)</f>
+      <c r="C32">
+        <f>SUM(C26:C29)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="B44" t="s">
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <f>SUM(B46:B48)</f>
         <v>5</v>
       </c>
       <c r="C49">
-        <f>SUM(C48)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50">
-        <f>SUM(B45:B47)</f>
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <f>SUM(B48:B50)</f>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <f>SUM(C50)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B47:B49)</f>
         <v>9</v>
       </c>
-      <c r="C50">
-        <f>SUM(C45:C48)</f>
+      <c r="C53">
+        <f>SUM(C47:C50)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4933,1084 +6149,1266 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67">
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>2</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
-        <v>9</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <f>SUM(B67:B69)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <f>SUM(C69)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <f>SUM(B66:B68)</f>
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <f>SUM(B70:B72)</f>
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <f>SUM(C72)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <f>SUM(B69:B71)</f>
         <v>16</v>
       </c>
-      <c r="C71">
-        <f>SUM(C66:C69)</f>
+      <c r="C75">
+        <f>SUM(C69:C72)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C85" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="B84" t="s">
+    <row r="88" spans="1:3">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C88" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
         <v>8</v>
       </c>
-      <c r="B89">
-        <f>SUM(B86:B88)</f>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <f>SUM(B90:B92)</f>
         <v>7</v>
       </c>
-      <c r="C89">
-        <f>SUM(C88)</f>
+      <c r="C93">
+        <f>SUM(C92)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="3">
-        <f>SUM(B85:B88)</f>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3">
+        <f>SUM(B89:B92)</f>
         <v>11</v>
       </c>
-      <c r="C90" s="3">
-        <f>SUM(C85:C88)</f>
+      <c r="C95" s="3">
+        <f>SUM(C89:C92)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="106" spans="1:3">
-      <c r="B106" t="s">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C111" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B107">
+      <c r="B112">
         <v>4</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>5</v>
       </c>
-      <c r="B108">
+      <c r="B113">
         <v>8</v>
       </c>
-      <c r="C108">
+      <c r="C113">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="B109">
+      <c r="B114">
         <v>17</v>
       </c>
-      <c r="C109">
+      <c r="C114">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>6</v>
       </c>
-      <c r="C110">
+      <c r="C115">
         <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111">
-        <f>SUM(B108:B110)</f>
-        <v>25</v>
-      </c>
-      <c r="C111">
-        <f>SUM(C110)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="3">
-        <f>SUM(B107:B110)</f>
-        <v>29</v>
-      </c>
-      <c r="C112" s="3">
-        <f>SUM(C107:C110)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <f>SUM(B113:B115)</f>
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <f>SUM(C115)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="A117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117">
         <v>2</v>
       </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120">
-        <v>11</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121">
-        <v>6</v>
+      <c r="A118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="3">
+        <f>SUM(B112:B115)</f>
+        <v>29</v>
+      </c>
+      <c r="C118" s="3">
+        <f>SUM(C112:C115)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122">
-        <f>SUM(B119:B121)</f>
-        <v>15</v>
-      </c>
-      <c r="C122">
-        <f>SUM(C121)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="3">
-        <f>SUM(B118:B121)</f>
-        <v>19</v>
-      </c>
-      <c r="C123" s="3">
-        <f>SUM(C118:C121)</f>
-        <v>10</v>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2</v>
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B128">
+        <f>SUM(B125:B127)</f>
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <f>SUM(C127)</f>
         <v>6</v>
       </c>
-      <c r="C128">
-        <v>6</v>
-      </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>5</v>
+      <c r="A129" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="3">
+        <f>SUM(B124:B127)</f>
+        <v>19</v>
+      </c>
+      <c r="C130" s="3">
+        <f>SUM(C124:C127)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
         <v>7</v>
       </c>
-      <c r="B130">
+      <c r="B137">
         <v>14</v>
       </c>
-      <c r="C130">
+      <c r="C137">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
         <v>6</v>
       </c>
-      <c r="C131">
+      <c r="C138">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>8</v>
       </c>
-      <c r="B132">
-        <f>SUM(B129:B131)</f>
+      <c r="B139">
+        <f>SUM(B136:B138)</f>
         <v>16</v>
       </c>
-      <c r="C132">
-        <f>SUM(C131)</f>
+      <c r="C139">
+        <f>SUM(C138)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B133" s="3">
-        <f>SUM(B128:B131)</f>
-        <v>22</v>
-      </c>
-      <c r="C133" s="3">
-        <f>SUM(C128:C131)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-    </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="A140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140">
         <v>2</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B141" s="3">
-        <v>6</v>
+        <f>SUM(B135:B138)</f>
+        <v>22</v>
       </c>
       <c r="C141" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="3">
-        <v>4</v>
-      </c>
-      <c r="C142" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" s="3">
-        <v>14</v>
-      </c>
-      <c r="C143" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="3">
-        <f>SUM(B142:B144)</f>
-        <v>18</v>
-      </c>
-      <c r="C145" s="3">
-        <f>SUM(C142:C144)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="3">
-        <f>SUM(B141:B144)</f>
-        <v>24</v>
-      </c>
-      <c r="C146" s="3">
-        <f>SUM(C141:C144)</f>
+        <f>SUM(C135:C138)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B149" s="3">
+        <v>6</v>
+      </c>
+      <c r="C149" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>2</v>
+      <c r="A150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B151" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C151" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="3">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B152" s="3"/>
       <c r="C152" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B153" s="3">
+        <f>SUM(B150:B152)</f>
         <v>18</v>
       </c>
       <c r="C153" s="3">
-        <v>0</v>
+        <f>SUM(C150:C152)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2</v>
+      </c>
       <c r="C154" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="3">
+        <f>SUM(B149:B152)</f>
+        <v>24</v>
+      </c>
+      <c r="C155" s="3">
+        <f>SUM(C149:C152)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="3">
         <v>8</v>
       </c>
-      <c r="B155" s="3">
-        <f>SUM(B152:B154)</f>
+      <c r="C160" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="3">
+        <v>18</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="3">
+        <f>SUM(B161:B163)</f>
         <v>20</v>
       </c>
-      <c r="C155" s="3">
-        <f>SUM(C152:C154)</f>
+      <c r="C164" s="3">
+        <f>SUM(C161:C163)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="3" t="s">
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="3">
+        <f>SUM(B160:B162)</f>
+        <v>28</v>
+      </c>
+      <c r="C166" s="3">
+        <f>SUM(C160:C163)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>43</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182">
+        <f>SUM(B179:B181)</f>
+        <v>51</v>
+      </c>
+      <c r="C182">
+        <f>SUM(C179:C181)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="3">
+        <f>SUM(B178:B181)</f>
+        <v>70</v>
+      </c>
+      <c r="C184" s="3">
+        <f>SUM(C178:C181)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>10</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252">
+        <v>20</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <f>SUM(B251:B253)</f>
+        <v>24</v>
+      </c>
+      <c r="C254">
+        <f>SUM(C251:C253)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="3">
+        <f>SUM(B250:B253)</f>
+        <v>34</v>
+      </c>
+      <c r="C256" s="3">
+        <f>SUM(C250:C253)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="3">
+        <v>6</v>
+      </c>
+      <c r="C261" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="3">
+        <v>4</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" s="3">
+        <v>13</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="3">
+        <f>SUM(B262:B264)</f>
+        <v>17</v>
+      </c>
+      <c r="C265" s="3">
+        <f>SUM(C262:C264)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="3">
+        <v>2</v>
+      </c>
+      <c r="C266" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="3">
+        <f>SUM(B261:B263)</f>
+        <v>23</v>
+      </c>
+      <c r="C267" s="3">
+        <f>SUM(C261:C264)</f>
         <v>18</v>
       </c>
-      <c r="B156" s="3">
-        <f>SUM(B151:B153)</f>
-        <v>28</v>
-      </c>
-      <c r="C156" s="3">
-        <f>SUM(C151:C154)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <v>12</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314">
+        <f>SUM(B311:B313)</f>
+        <v>12</v>
+      </c>
+      <c r="C314">
+        <f>SUM(C313)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
+      <c r="B315">
         <v>1</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316">
+        <f>SUM(B310:B312)</f>
+        <v>23</v>
+      </c>
+      <c r="C316">
+        <f>SUM(C310:C313)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="B327" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
         <v>4</v>
       </c>
-      <c r="B168">
-        <v>19</v>
-      </c>
-      <c r="C168">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="B328">
+        <v>9</v>
+      </c>
+      <c r="C328">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
         <v>5</v>
       </c>
-      <c r="B169">
-        <v>8</v>
-      </c>
-      <c r="C169">
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
         <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170">
-        <v>43</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>6</v>
-      </c>
-      <c r="C171">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172">
-        <f>SUM(B169:B171)</f>
-        <v>51</v>
-      </c>
-      <c r="C172">
-        <f>SUM(C169:C171)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173" s="3">
-        <f>SUM(B168:B171)</f>
-        <v>70</v>
-      </c>
-      <c r="C173" s="3">
-        <f>SUM(C168:C171)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="B258" t="s">
-        <v>1</v>
-      </c>
-      <c r="C258" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259">
-        <v>5</v>
-      </c>
-      <c r="C259">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="B262" t="s">
-        <v>1</v>
-      </c>
-      <c r="C262" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>7</v>
-      </c>
-      <c r="B264">
-        <v>6</v>
-      </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>6</v>
-      </c>
-      <c r="C265">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>8</v>
-      </c>
-      <c r="B266">
-        <f>SUM(B263:B265)</f>
-        <v>6</v>
-      </c>
-      <c r="C266">
-        <f>SUM(C265)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="B277" t="s">
-        <v>1</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278">
-        <v>9</v>
-      </c>
-      <c r="C278">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="B281" t="s">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
-        <v>7</v>
-      </c>
-      <c r="B283">
-        <v>10</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
-        <v>8</v>
-      </c>
-      <c r="B285">
-        <f>SUM(B282:B284)</f>
-        <v>10</v>
-      </c>
-      <c r="C285">
-        <f>SUM(C284)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="B296" t="s">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
-        <v>4</v>
-      </c>
-      <c r="B297">
-        <v>11</v>
-      </c>
-      <c r="C297">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="B300" t="s">
-        <v>1</v>
-      </c>
-      <c r="C300" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" t="s">
-        <v>5</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" t="s">
-        <v>7</v>
-      </c>
-      <c r="B302">
-        <v>12</v>
-      </c>
-      <c r="C302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
-        <v>6</v>
-      </c>
-      <c r="C303">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" t="s">
-        <v>8</v>
-      </c>
-      <c r="B304">
-        <f>SUM(B301:B303)</f>
-        <v>12</v>
-      </c>
-      <c r="C304">
-        <f>SUM(C303)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="B316" t="s">
-        <v>1</v>
-      </c>
-      <c r="C316" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
-        <v>4</v>
-      </c>
-      <c r="B317">
-        <v>9</v>
-      </c>
-      <c r="C317">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="B320" t="s">
-        <v>1</v>
-      </c>
-      <c r="C320" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" t="s">
-        <v>5</v>
-      </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322">
-        <v>15</v>
-      </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" t="s">
-        <v>6</v>
-      </c>
-      <c r="C323">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" t="s">
-        <v>8</v>
-      </c>
-      <c r="B324">
-        <f>SUM(B321:B323)</f>
-        <v>18</v>
-      </c>
-      <c r="C324">
-        <f>SUM(C323)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="B329" t="s">
-        <v>1</v>
-      </c>
-      <c r="C329" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B330">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C330">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>5</v>
-      </c>
-      <c r="B331">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>8</v>
+      </c>
+      <c r="B332">
+        <f>SUM(B329:B331)</f>
+        <v>18</v>
+      </c>
+      <c r="C332">
+        <f>SUM(C331)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334">
+        <f>SUM(B328:B330)</f>
+        <v>27</v>
+      </c>
+      <c r="C334">
+        <f>SUM(C328:C331)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="B344" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>12</v>
+      </c>
+      <c r="C345">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346">
+        <v>6</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
         <v>7</v>
       </c>
-      <c r="B332">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" t="s">
+      <c r="B347">
+        <v>27</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
         <v>6</v>
       </c>
-      <c r="C333">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" t="s">
+      <c r="C348">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
         <v>8</v>
       </c>
-      <c r="B334">
-        <f>SUM(B331:B333)</f>
-        <v>28</v>
-      </c>
-      <c r="C334">
-        <f>SUM(C333)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
-        <v>18</v>
-      </c>
-      <c r="B335">
-        <f>SUM(B330:B332)</f>
-        <v>40</v>
-      </c>
-      <c r="C335">
-        <f>SUM(C330:C333)</f>
-        <v>32</v>
+      <c r="B349">
+        <f>SUM(B346:B348)</f>
+        <v>33</v>
+      </c>
+      <c r="C349">
+        <f>SUM(C348)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351">
+        <f>SUM(B345:B347)</f>
+        <v>45</v>
+      </c>
+      <c r="C351">
+        <f>SUM(C345:C348)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -4000,6 +4000,21 @@
                 <c:manualLayout>
                   <c:x val="0.0"/>
                   <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0205479452054794"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -5831,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="G322" sqref="G322"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.9212270304374E-17"/>
+                  <c:x val="-8.92122703043742E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -628,12 +628,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2116804392"/>
-        <c:axId val="-2116801608"/>
+        <c:axId val="2085186104"/>
+        <c:axId val="2085188888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2116804392"/>
+        <c:axId val="2085186104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116801608"/>
+        <c:crossAx val="2085188888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116801608"/>
+        <c:axId val="2085188888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116804392"/>
+        <c:crossAx val="2085186104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,12 +933,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2119574232"/>
-        <c:axId val="-2119571448"/>
+        <c:axId val="2085953336"/>
+        <c:axId val="2085956120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2119574232"/>
+        <c:axId val="2085953336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119571448"/>
+        <c:crossAx val="2085956120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -955,7 +955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119571448"/>
+        <c:axId val="2085956120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119574232"/>
+        <c:crossAx val="2085953336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,12 +1196,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2117862728"/>
-        <c:axId val="-2117859752"/>
+        <c:axId val="2085992424"/>
+        <c:axId val="2085995400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2117862728"/>
+        <c:axId val="2085992424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117859752"/>
+        <c:crossAx val="2085995400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117859752"/>
+        <c:axId val="2085995400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117862728"/>
+        <c:crossAx val="2085992424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,12 +1501,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2117764536"/>
-        <c:axId val="-2117761752"/>
+        <c:axId val="2086033896"/>
+        <c:axId val="2086036680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2117764536"/>
+        <c:axId val="2086033896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117761752"/>
+        <c:crossAx val="2086036680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117761752"/>
+        <c:axId val="2086036680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117764536"/>
+        <c:crossAx val="2086033896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,7 +1732,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.4679545254267E-17"/>
+                  <c:x val="8.46795452542672E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1821,12 +1821,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2117721672"/>
-        <c:axId val="-2117718888"/>
+        <c:axId val="2086076872"/>
+        <c:axId val="2086079656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2117721672"/>
+        <c:axId val="2086076872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117718888"/>
+        <c:crossAx val="2086079656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117718888"/>
+        <c:axId val="2086079656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117721672"/>
+        <c:crossAx val="2086076872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,12 +2141,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2117680296"/>
-        <c:axId val="-2117677512"/>
+        <c:axId val="2086119560"/>
+        <c:axId val="2086122344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2117680296"/>
+        <c:axId val="2086119560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117677512"/>
+        <c:crossAx val="2086122344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117677512"/>
+        <c:axId val="2086122344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117680296"/>
+        <c:crossAx val="2086119560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,7 +2388,7 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
@@ -2407,12 +2407,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2117641272"/>
-        <c:axId val="-2117638296"/>
+        <c:axId val="2086158456"/>
+        <c:axId val="2086161432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2117641272"/>
+        <c:axId val="2086158456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117638296"/>
+        <c:crossAx val="2086161432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117638296"/>
+        <c:axId val="2086161432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117641272"/>
+        <c:crossAx val="2086158456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,12 +2697,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2131564408"/>
-        <c:axId val="-2120927992"/>
+        <c:axId val="2086200136"/>
+        <c:axId val="2086202920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2131564408"/>
+        <c:axId val="2086200136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120927992"/>
+        <c:crossAx val="2086202920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +2719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120927992"/>
+        <c:axId val="2086202920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2730,327 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131564408"/>
+        <c:crossAx val="2086200136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>System spezifizieren</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$327</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPMN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$328:$A$334</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$328:$B$334</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$327</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ConDec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.092533763208E-17"/>
+                  <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00555555555555555"/>
+                  <c:y val="-0.0185185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$328:$A$334</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aktivitäten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gateways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequenzfluss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Summe Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Summe Elemente gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$328:$C$334</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2084111208"/>
+        <c:axId val="2084153816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2084111208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2084153816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2084153816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2084111208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2960,12 +3280,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2116764456"/>
-        <c:axId val="-2116761480"/>
+        <c:axId val="2047936456"/>
+        <c:axId val="2047933464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2116764456"/>
+        <c:axId val="2047936456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +3294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116761480"/>
+        <c:crossAx val="2047933464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2982,7 +3302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116761480"/>
+        <c:axId val="2047933464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +3313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116764456"/>
+        <c:crossAx val="2047936456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,12 +3570,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2116723128"/>
-        <c:axId val="-2116720344"/>
+        <c:axId val="2047895736"/>
+        <c:axId val="2047892936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2116723128"/>
+        <c:axId val="2047895736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116720344"/>
+        <c:crossAx val="2047892936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3272,7 +3592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116720344"/>
+        <c:axId val="2047892936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116723128"/>
+        <c:crossAx val="2047895736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3497,7 +3817,7 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.0</c:v>
@@ -3516,12 +3836,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2120004424"/>
-        <c:axId val="-2119767272"/>
+        <c:axId val="2085703928"/>
+        <c:axId val="2085706904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2120004424"/>
+        <c:axId val="2085703928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119767272"/>
+        <c:crossAx val="2085706904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119767272"/>
+        <c:axId val="2085706904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120004424"/>
+        <c:crossAx val="2085703928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3782,12 +4102,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2132695400"/>
-        <c:axId val="-2119810696"/>
+        <c:axId val="2085744072"/>
+        <c:axId val="2085747048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2132695400"/>
+        <c:axId val="2085744072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +4116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119810696"/>
+        <c:crossAx val="2085747048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3804,7 +4124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119810696"/>
+        <c:axId val="2085747048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +4135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132695400"/>
+        <c:crossAx val="2085744072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4102,12 +4422,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2119867720"/>
-        <c:axId val="-2119864936"/>
+        <c:axId val="2085787624"/>
+        <c:axId val="2085790408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2119867720"/>
+        <c:axId val="2085787624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119864936"/>
+        <c:crossAx val="2085790408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +4444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119864936"/>
+        <c:axId val="2085790408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119867720"/>
+        <c:crossAx val="2085787624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4407,12 +4727,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2119696712"/>
-        <c:axId val="-2119693928"/>
+        <c:axId val="2085828600"/>
+        <c:axId val="2085831384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2119696712"/>
+        <c:axId val="2085828600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,7 +4741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119693928"/>
+        <c:crossAx val="2085831384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4429,7 +4749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119693928"/>
+        <c:axId val="2085831384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119696712"/>
+        <c:crossAx val="2085828600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,12 +5032,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2119655832"/>
-        <c:axId val="-2119653048"/>
+        <c:axId val="2085870024"/>
+        <c:axId val="2085872808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2119655832"/>
+        <c:axId val="2085870024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +5046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119653048"/>
+        <c:crossAx val="2085872808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4734,7 +5054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119653048"/>
+        <c:axId val="2085872808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +5065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119655832"/>
+        <c:crossAx val="2085870024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,12 +5337,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2119615176"/>
-        <c:axId val="-2119612392"/>
+        <c:axId val="2085911256"/>
+        <c:axId val="2085914040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2119615176"/>
+        <c:axId val="2085911256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +5351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119612392"/>
+        <c:crossAx val="2085914040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5039,7 +5359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119612392"/>
+        <c:axId val="2085914040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,7 +5370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119615176"/>
+        <c:crossAx val="2085911256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5526,16 +5846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>320</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5549,6 +5869,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5846,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6234,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7228,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -7319,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3">

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043742E-17"/>
+                  <c:x val="-8.92122703043743E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -628,12 +628,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085186104"/>
-        <c:axId val="2085188888"/>
+        <c:axId val="2121375944"/>
+        <c:axId val="2121373144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085186104"/>
+        <c:axId val="2121375944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085188888"/>
+        <c:crossAx val="2121373144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085188888"/>
+        <c:axId val="2121373144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085186104"/>
+        <c:crossAx val="2121375944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,12 +933,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085953336"/>
-        <c:axId val="2085956120"/>
+        <c:axId val="-2138685992"/>
+        <c:axId val="-2138683208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085953336"/>
+        <c:axId val="-2138685992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085956120"/>
+        <c:crossAx val="-2138683208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -955,7 +955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085956120"/>
+        <c:axId val="-2138683208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085953336"/>
+        <c:crossAx val="-2138685992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,12 +1196,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085992424"/>
-        <c:axId val="2085995400"/>
+        <c:axId val="-2138646904"/>
+        <c:axId val="-2138643928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085992424"/>
+        <c:axId val="-2138646904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085995400"/>
+        <c:crossAx val="-2138643928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085995400"/>
+        <c:axId val="-2138643928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085992424"/>
+        <c:crossAx val="-2138646904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,7 +1281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1501,12 +1500,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2086033896"/>
-        <c:axId val="2086036680"/>
+        <c:axId val="-2138605432"/>
+        <c:axId val="-2138602648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2086033896"/>
+        <c:axId val="-2138605432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086036680"/>
+        <c:crossAx val="-2138602648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086036680"/>
+        <c:axId val="-2138602648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,14 +1533,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086033896"/>
+        <c:crossAx val="-2138605432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1732,7 +1730,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.46795452542672E-17"/>
+                  <c:x val="8.46795452542673E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1821,12 +1819,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2086076872"/>
-        <c:axId val="2086079656"/>
+        <c:axId val="-2138562456"/>
+        <c:axId val="-2138559672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2086076872"/>
+        <c:axId val="-2138562456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086079656"/>
+        <c:crossAx val="-2138559672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086079656"/>
+        <c:axId val="-2138559672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086076872"/>
+        <c:crossAx val="-2138562456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,12 +2139,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2086119560"/>
-        <c:axId val="2086122344"/>
+        <c:axId val="-2138519768"/>
+        <c:axId val="-2138516984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2086119560"/>
+        <c:axId val="-2138519768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086122344"/>
+        <c:crossAx val="-2138516984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086122344"/>
+        <c:axId val="-2138516984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086119560"/>
+        <c:crossAx val="-2138519768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2407,12 +2405,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2086158456"/>
-        <c:axId val="2086161432"/>
+        <c:axId val="-2138480872"/>
+        <c:axId val="-2138477896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2086158456"/>
+        <c:axId val="-2138480872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086161432"/>
+        <c:crossAx val="-2138477896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086161432"/>
+        <c:axId val="-2138477896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086158456"/>
+        <c:crossAx val="-2138480872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,16 +2571,16 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,16 +2670,16 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,12 +2695,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2086200136"/>
-        <c:axId val="2086202920"/>
+        <c:axId val="-2138439192"/>
+        <c:axId val="-2138436408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2086200136"/>
+        <c:axId val="-2138439192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086202920"/>
+        <c:crossAx val="-2138436408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +2717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086202920"/>
+        <c:axId val="-2138436408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086200136"/>
+        <c:crossAx val="-2138439192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3017,12 +3015,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2084111208"/>
-        <c:axId val="2084153816"/>
+        <c:axId val="-2138396408"/>
+        <c:axId val="-2138393624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2084111208"/>
+        <c:axId val="-2138396408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084153816"/>
+        <c:crossAx val="-2138393624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,7 +3037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084153816"/>
+        <c:axId val="-2138393624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084111208"/>
+        <c:crossAx val="-2138396408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,12 +3278,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2047936456"/>
-        <c:axId val="2047933464"/>
+        <c:axId val="2121329208"/>
+        <c:axId val="2121326216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2047936456"/>
+        <c:axId val="2121329208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,7 +3292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047933464"/>
+        <c:crossAx val="2121326216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3302,7 +3300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047933464"/>
+        <c:axId val="2121326216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047936456"/>
+        <c:crossAx val="2121329208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,12 +3568,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2047895736"/>
-        <c:axId val="2047892936"/>
+        <c:axId val="2121288440"/>
+        <c:axId val="2121285640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2047895736"/>
+        <c:axId val="2121288440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047892936"/>
+        <c:crossAx val="2121285640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047892936"/>
+        <c:axId val="2121285640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047895736"/>
+        <c:crossAx val="2121288440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,12 +3834,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085703928"/>
-        <c:axId val="2085706904"/>
+        <c:axId val="-2138934552"/>
+        <c:axId val="-2138931576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085703928"/>
+        <c:axId val="-2138934552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,7 +3848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085706904"/>
+        <c:crossAx val="-2138931576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3858,7 +3856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085706904"/>
+        <c:axId val="-2138931576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085703928"/>
+        <c:crossAx val="-2138934552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4102,12 +4100,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085744072"/>
-        <c:axId val="2085747048"/>
+        <c:axId val="-2138894664"/>
+        <c:axId val="-2138891688"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085744072"/>
+        <c:axId val="-2138894664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085747048"/>
+        <c:crossAx val="-2138891688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +4122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085747048"/>
+        <c:axId val="-2138891688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085744072"/>
+        <c:crossAx val="-2138894664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,12 +4420,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085787624"/>
-        <c:axId val="2085790408"/>
+        <c:axId val="-2138851368"/>
+        <c:axId val="-2138848584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085787624"/>
+        <c:axId val="-2138851368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085790408"/>
+        <c:crossAx val="-2138848584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4444,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085790408"/>
+        <c:axId val="-2138848584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,7 +4453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085787624"/>
+        <c:crossAx val="-2138851368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4727,12 +4725,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085828600"/>
-        <c:axId val="2085831384"/>
+        <c:axId val="-2138810728"/>
+        <c:axId val="-2138807944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085828600"/>
+        <c:axId val="-2138810728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +4739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085831384"/>
+        <c:crossAx val="-2138807944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4749,7 +4747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085831384"/>
+        <c:axId val="-2138807944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +4758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085828600"/>
+        <c:crossAx val="-2138810728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5032,12 +5030,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085870024"/>
-        <c:axId val="2085872808"/>
+        <c:axId val="-2138769304"/>
+        <c:axId val="-2138766520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085870024"/>
+        <c:axId val="-2138769304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,7 +5044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085872808"/>
+        <c:crossAx val="-2138766520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5054,7 +5052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085872808"/>
+        <c:axId val="-2138766520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085870024"/>
+        <c:crossAx val="-2138769304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5337,12 +5335,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2085911256"/>
-        <c:axId val="2085914040"/>
+        <c:axId val="-2138728072"/>
+        <c:axId val="-2138725288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2085911256"/>
+        <c:axId val="-2138728072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,7 +5349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085914040"/>
+        <c:crossAx val="-2138725288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5359,7 +5357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085914040"/>
+        <c:axId val="-2138725288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085911256"/>
+        <c:crossAx val="-2138728072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6196,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7725,7 +7723,7 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -7736,7 +7734,7 @@
         <v>6</v>
       </c>
       <c r="C348">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -7745,11 +7743,11 @@
       </c>
       <c r="B349">
         <f>SUM(B346:B348)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C349">
         <f>SUM(C348)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -7760,7 +7758,7 @@
         <v>3</v>
       </c>
       <c r="C350">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -7769,11 +7767,11 @@
       </c>
       <c r="B351">
         <f>SUM(B345:B347)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C351">
         <f>SUM(C345:C348)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="29">
   <si>
     <t>Open Up</t>
   </si>
@@ -100,6 +100,15 @@
   <si>
     <t>Scrum</t>
   </si>
+  <si>
+    <t>Gateways/Constraints</t>
+  </si>
+  <si>
+    <t>Sequenzfluss/Existenz</t>
+  </si>
+  <si>
+    <t>Anzahl unterschiedliche Gateways/Constraints</t>
+  </si>
 </sst>
 </file>
 
@@ -175,8 +184,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -275,7 +372,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="179">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -321,6 +418,50 @@
     <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -366,6 +507,50 @@
     <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,30 +635,48 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.92122703043737E-17"/>
+                  <c:y val="-0.0150375939849624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:f>Tabelle1!$A$9:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -481,10 +684,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$B$15</c:f>
+              <c:f>Tabelle1!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -494,13 +697,10 @@
                 <c:pt idx="2">
                   <c:v>15.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -542,7 +742,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043743E-17"/>
+                  <c:x val="-8.92122703043746E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -563,28 +763,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:f>Tabelle1!$A$9:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -592,27 +786,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$9:$C$15</c:f>
+              <c:f>Tabelle1!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,12 +819,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121375944"/>
-        <c:axId val="2121373144"/>
+        <c:axId val="2121751384"/>
+        <c:axId val="2121754168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121375944"/>
+        <c:axId val="2121751384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121373144"/>
+        <c:crossAx val="2121754168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121373144"/>
+        <c:axId val="2121754168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121375944"/>
+        <c:crossAx val="2121751384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,7 +933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$159</c:f>
+              <c:f>Tabelle1!$B$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,28 +945,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$160:$A$166</c:f>
+              <c:f>Tabelle1!$A$142:$A$146</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -783,10 +968,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$160:$B$166</c:f>
+              <c:f>Tabelle1!$B$142:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
                 </c:pt>
@@ -796,13 +981,10 @@
                 <c:pt idx="2">
                   <c:v>18.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -814,7 +996,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$159</c:f>
+              <c:f>Tabelle1!$C$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -865,28 +1047,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$160:$A$166</c:f>
+              <c:f>Tabelle1!$A$142:$A$146</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -894,10 +1070,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$160:$C$166</c:f>
+              <c:f>Tabelle1!$C$142:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
                 </c:pt>
@@ -905,18 +1081,12 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -933,12 +1103,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138685992"/>
-        <c:axId val="-2138683208"/>
+        <c:axId val="2122164552"/>
+        <c:axId val="2122167336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138685992"/>
+        <c:axId val="2122164552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138683208"/>
+        <c:crossAx val="2122167336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -955,7 +1125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138683208"/>
+        <c:axId val="2122167336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138685992"/>
+        <c:crossAx val="2122164552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,7 +1217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$25</c:f>
+              <c:f>Tabelle1!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1059,28 +1229,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$26:$A$32</c:f>
+              <c:f>Tabelle1!$A$24:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1088,10 +1252,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$26:$B$32</c:f>
+              <c:f>Tabelle1!$B$24:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -1102,12 +1266,6 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1119,7 +1277,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$25</c:f>
+              <c:f>Tabelle1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,28 +1289,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$26:$A$32</c:f>
+              <c:f>Tabelle1!$A$24:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1160,27 +1312,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$26:$C$32</c:f>
+              <c:f>Tabelle1!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,12 +1345,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138646904"/>
-        <c:axId val="-2138643928"/>
+        <c:axId val="2122203640"/>
+        <c:axId val="2122206616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138646904"/>
+        <c:axId val="2122203640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138643928"/>
+        <c:crossAx val="2122206616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138643928"/>
+        <c:axId val="2122206616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138646904"/>
+        <c:crossAx val="2122203640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,6 +1430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1309,7 +1459,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$177</c:f>
+              <c:f>Tabelle1!$B$157</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1321,7 +1471,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$178:$A$184</c:f>
+              <c:f>Tabelle1!$A$158:$A$164</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1350,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$178:$B$184</c:f>
+              <c:f>Tabelle1!$B$158:$B$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1381,7 +1531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$177</c:f>
+              <c:f>Tabelle1!$C$157</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1432,7 +1582,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$178:$A$184</c:f>
+              <c:f>Tabelle1!$A$158:$A$164</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1461,7 +1611,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$178:$C$184</c:f>
+              <c:f>Tabelle1!$C$158:$C$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1500,12 +1650,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138605432"/>
-        <c:axId val="-2138602648"/>
+        <c:axId val="2122245112"/>
+        <c:axId val="2122247896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138605432"/>
+        <c:axId val="2122245112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138602648"/>
+        <c:crossAx val="2122247896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138602648"/>
+        <c:axId val="2122247896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,13 +1683,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138605432"/>
+        <c:crossAx val="2122245112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1613,7 +1764,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$249</c:f>
+              <c:f>Tabelle1!$B$229</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1625,28 +1776,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$250:$A$256</c:f>
+              <c:f>Tabelle1!$A$230:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1654,10 +1799,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$250:$B$256</c:f>
+              <c:f>Tabelle1!$B$230:$B$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10.0</c:v>
                 </c:pt>
@@ -1667,13 +1812,10 @@
                 <c:pt idx="2">
                   <c:v>20.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>34.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1685,7 +1827,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$249</c:f>
+              <c:f>Tabelle1!$C$229</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1730,7 +1872,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.46795452542673E-17"/>
+                  <c:x val="8.46795452542676E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1751,28 +1893,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$250:$A$256</c:f>
+              <c:f>Tabelle1!$A$230:$A$234</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1780,30 +1916,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$250:$C$256</c:f>
+              <c:f>Tabelle1!$C$230:$C$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,12 +1949,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138562456"/>
-        <c:axId val="-2138559672"/>
+        <c:axId val="2122288088"/>
+        <c:axId val="2122290872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138562456"/>
+        <c:axId val="2122288088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138559672"/>
+        <c:crossAx val="2122290872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1841,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138559672"/>
+        <c:axId val="2122290872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138562456"/>
+        <c:crossAx val="2122288088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1933,7 +2063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$260</c:f>
+              <c:f>Tabelle1!$B$238</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1945,28 +2075,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$261:$A$267</c:f>
+              <c:f>Tabelle1!$A$239:$A$243</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -1974,10 +2098,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$261:$B$267</c:f>
+              <c:f>Tabelle1!$B$239:$B$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -1987,13 +2111,10 @@
                 <c:pt idx="2">
                   <c:v>13.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2005,7 +2126,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$260</c:f>
+              <c:f>Tabelle1!$C$238</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2016,6 +2137,21 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00232018561484927"/>
+                  <c:y val="-0.0154142581888247"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
@@ -2071,28 +2207,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$261:$A$267</c:f>
+              <c:f>Tabelle1!$A$239:$A$243</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2100,30 +2230,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$261:$C$267</c:f>
+              <c:f>Tabelle1!$C$239:$C$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,12 +2263,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138519768"/>
-        <c:axId val="-2138516984"/>
+        <c:axId val="2122347032"/>
+        <c:axId val="2122349816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138519768"/>
+        <c:axId val="2122347032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138516984"/>
+        <c:crossAx val="2122349816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2161,7 +2285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138516984"/>
+        <c:axId val="2122349816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138519768"/>
+        <c:crossAx val="2122347032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2253,7 +2377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$309</c:f>
+              <c:f>Tabelle1!$B$285</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,28 +2389,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$310:$A$316</c:f>
+              <c:f>Tabelle1!$A$286:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2294,10 +2412,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$310:$B$316</c:f>
+              <c:f>Tabelle1!$B$286:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -2307,13 +2425,10 @@
                 <c:pt idx="2">
                   <c:v>12.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2325,7 +2440,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$309</c:f>
+              <c:f>Tabelle1!$C$285</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2337,28 +2452,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$310:$A$316</c:f>
+              <c:f>Tabelle1!$A$286:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2366,29 +2475,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$310:$C$316</c:f>
+              <c:f>Tabelle1!$C$286:$C$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2405,12 +2508,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138480872"/>
-        <c:axId val="-2138477896"/>
+        <c:axId val="2122385928"/>
+        <c:axId val="2122388904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138480872"/>
+        <c:axId val="2122385928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138477896"/>
+        <c:crossAx val="2122388904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138477896"/>
+        <c:axId val="2122388904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138480872"/>
+        <c:crossAx val="2122385928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,7 +2612,17 @@
       <c:thickness val="0"/>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.312662149789416"/>
+          <c:y val="0.185009140767824"/>
+          <c:w val="0.433580296648965"/>
+          <c:h val="0.740597388763333"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2519,7 +2632,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$342:$B$344</c:f>
+              <c:f>Tabelle1!$B$314:$B$316</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2531,28 +2644,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$345:$A$351</c:f>
+              <c:f>Tabelle1!$A$317:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2560,10 +2667,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$345:$B$351</c:f>
+              <c:f>Tabelle1!$B$317:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
@@ -2573,13 +2680,10 @@
                 <c:pt idx="2">
                   <c:v>26.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2591,7 +2695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$342:$C$344</c:f>
+              <c:f>Tabelle1!$C$314:$C$316</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2602,6 +2706,66 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00232558139534884"/>
+                  <c:y val="-0.0146252285191956"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.52703327792968E-17"/>
+                  <c:y val="-0.0146252285191956"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00232558139534884"/>
+                  <c:y val="-0.0154142581888247"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0146252285191956"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
@@ -2627,28 +2791,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$345:$A$351</c:f>
+              <c:f>Tabelle1!$A$317:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2656,29 +2814,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$345:$C$351</c:f>
+              <c:f>Tabelle1!$C$317:$C$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2695,12 +2847,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138439192"/>
-        <c:axId val="-2138436408"/>
+        <c:axId val="2122432440"/>
+        <c:axId val="2122435224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138439192"/>
+        <c:axId val="2122432440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138436408"/>
+        <c:crossAx val="2122435224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138436408"/>
+        <c:axId val="2122435224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138439192"/>
+        <c:crossAx val="2122432440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2809,7 +2961,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$327</c:f>
+              <c:f>Tabelle1!$B$301</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2821,28 +2973,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$328:$A$334</c:f>
+              <c:f>Tabelle1!$A$302:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2850,10 +2996,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$328:$B$334</c:f>
+              <c:f>Tabelle1!$B$302:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.0</c:v>
                 </c:pt>
@@ -2863,13 +3009,10 @@
                 <c:pt idx="2">
                   <c:v>15.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2881,7 +3024,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$327</c:f>
+              <c:f>Tabelle1!$C$301</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2898,6 +3041,21 @@
                 <c:manualLayout>
                   <c:x val="-5.092533763208E-17"/>
                   <c:y val="-0.0231481481481481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.50724897798088E-17"/>
+                  <c:y val="-0.0173160173160174"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2947,28 +3105,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$328:$A$334</c:f>
+              <c:f>Tabelle1!$A$302:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -2976,30 +3128,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$328:$C$334</c:f>
+              <c:f>Tabelle1!$C$302:$C$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,12 +3161,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138396408"/>
-        <c:axId val="-2138393624"/>
+        <c:axId val="2122474104"/>
+        <c:axId val="2122476888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138396408"/>
+        <c:axId val="2122474104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138393624"/>
+        <c:crossAx val="2122476888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3037,7 +3183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138393624"/>
+        <c:axId val="2122476888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138396408"/>
+        <c:crossAx val="2122474104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,7 +3275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$25</c:f>
+              <c:f>Tabelle1!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3141,28 +3287,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$26:$A$32</c:f>
+              <c:f>Tabelle1!$A$24:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3170,10 +3310,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$26:$B$32</c:f>
+              <c:f>Tabelle1!$B$24:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -3184,12 +3324,6 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3201,7 +3335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$25</c:f>
+              <c:f>Tabelle1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3213,28 +3347,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$26:$A$32</c:f>
+              <c:f>Tabelle1!$A$24:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3242,27 +3370,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$26:$C$32</c:f>
+              <c:f>Tabelle1!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,12 +3403,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121329208"/>
-        <c:axId val="2121326216"/>
+        <c:axId val="2121833832"/>
+        <c:axId val="2121836808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121329208"/>
+        <c:axId val="2121833832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121326216"/>
+        <c:crossAx val="2121836808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3300,7 +3425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121326216"/>
+        <c:axId val="2121836808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121329208"/>
+        <c:crossAx val="2121833832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3392,7 +3517,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$46</c:f>
+              <c:f>Tabelle1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3404,28 +3529,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$47:$A$53</c:f>
+              <c:f>Tabelle1!$A$43:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3433,10 +3552,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$47:$B$53</c:f>
+              <c:f>Tabelle1!$B$43:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3446,13 +3565,10 @@
                 <c:pt idx="2">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3464,7 +3580,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$46</c:f>
+              <c:f>Tabelle1!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3500,28 +3616,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$47:$A$53</c:f>
+              <c:f>Tabelle1!$A$43:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3529,29 +3639,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$47:$C$53</c:f>
+              <c:f>Tabelle1!$C$43:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3568,12 +3672,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121288440"/>
-        <c:axId val="2121285640"/>
+        <c:axId val="2121874696"/>
+        <c:axId val="2121877480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121288440"/>
+        <c:axId val="2121874696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121285640"/>
+        <c:crossAx val="2121877480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +3694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121285640"/>
+        <c:axId val="2121877480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121288440"/>
+        <c:crossAx val="2121874696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3682,7 +3786,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$68</c:f>
+              <c:f>Tabelle1!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3694,28 +3798,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$69:$A$75</c:f>
+              <c:f>Tabelle1!$A$63:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3723,10 +3821,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$69:$B$75</c:f>
+              <c:f>Tabelle1!$B$63:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -3736,13 +3834,10 @@
                 <c:pt idx="2">
                   <c:v>9.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3754,7 +3849,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$68</c:f>
+              <c:f>Tabelle1!$C$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3764,30 +3859,63 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0112781954887218"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0150375939849624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$69:$A$75</c:f>
+              <c:f>Tabelle1!$A$63:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3795,30 +3923,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$69:$C$75</c:f>
+              <c:f>Tabelle1!$C$63:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,12 +3956,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138934552"/>
-        <c:axId val="-2138931576"/>
+        <c:axId val="2121914296"/>
+        <c:axId val="2121917272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138934552"/>
+        <c:axId val="2121914296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138931576"/>
+        <c:crossAx val="2121917272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3856,7 +3978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138931576"/>
+        <c:axId val="2121917272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,7 +3989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138934552"/>
+        <c:crossAx val="2121914296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3948,7 +4070,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$88</c:f>
+              <c:f>Tabelle1!$B$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3960,28 +4082,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$89:$A$95</c:f>
+              <c:f>Tabelle1!$A$81:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -3989,27 +4105,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$89:$B$95</c:f>
+              <c:f>Tabelle1!$B$81:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,7 +4133,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$88</c:f>
+              <c:f>Tabelle1!$C$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4032,28 +4145,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$89:$A$95</c:f>
+              <c:f>Tabelle1!$A$81:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4061,30 +4168,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$89:$C$95</c:f>
+              <c:f>Tabelle1!$C$81:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,12 +4201,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138894664"/>
-        <c:axId val="-2138891688"/>
+        <c:axId val="2121954664"/>
+        <c:axId val="2121957640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138894664"/>
+        <c:axId val="2121954664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138891688"/>
+        <c:crossAx val="2121957640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4122,7 +4223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138891688"/>
+        <c:axId val="2121957640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138894664"/>
+        <c:crossAx val="2121954664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4214,7 +4315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$111</c:f>
+              <c:f>Tabelle1!$B$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4226,28 +4327,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$112:$A$118</c:f>
+              <c:f>Tabelle1!$A$102:$A$106</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4255,10 +4350,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$112:$B$118</c:f>
+              <c:f>Tabelle1!$B$102:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -4268,13 +4363,10 @@
                 <c:pt idx="2">
                   <c:v>17.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4286,7 +4378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$111</c:f>
+              <c:f>Tabelle1!$C$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4352,28 +4444,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$112:$A$118</c:f>
+              <c:f>Tabelle1!$A$102:$A$106</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4381,29 +4467,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$112:$C$118</c:f>
+              <c:f>Tabelle1!$C$102:$C$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4420,12 +4500,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138851368"/>
-        <c:axId val="-2138848584"/>
+        <c:axId val="2121998440"/>
+        <c:axId val="2122001224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138851368"/>
+        <c:axId val="2121998440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138848584"/>
+        <c:crossAx val="2122001224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +4522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138848584"/>
+        <c:axId val="2122001224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138851368"/>
+        <c:crossAx val="2121998440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4534,7 +4614,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$123</c:f>
+              <c:f>Tabelle1!$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4546,28 +4626,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$124:$A$130</c:f>
+              <c:f>Tabelle1!$A$112:$A$116</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4575,10 +4649,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$124:$B$130</c:f>
+              <c:f>Tabelle1!$B$112:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -4588,13 +4662,10 @@
                 <c:pt idx="2">
                   <c:v>11.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4606,7 +4677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$123</c:f>
+              <c:f>Tabelle1!$C$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4617,6 +4688,51 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4679545254267E-17"/>
+                  <c:y val="-0.0160000000000001"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4679545254267E-17"/>
+                  <c:y val="-0.012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0023094688221709"/>
+                  <c:y val="-0.016"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
@@ -4657,28 +4773,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$124:$A$130</c:f>
+              <c:f>Tabelle1!$A$112:$A$116</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4686,29 +4796,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$124:$C$130</c:f>
+              <c:f>Tabelle1!$C$112:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4725,12 +4829,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138810728"/>
-        <c:axId val="-2138807944"/>
+        <c:axId val="2122039736"/>
+        <c:axId val="2122042520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138810728"/>
+        <c:axId val="2122039736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138807944"/>
+        <c:crossAx val="2122042520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4747,7 +4851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138807944"/>
+        <c:axId val="2122042520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,7 +4862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138810728"/>
+        <c:crossAx val="2122039736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4839,7 +4943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$134</c:f>
+              <c:f>Tabelle1!$B$120</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4851,28 +4955,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$135:$A$141</c:f>
+              <c:f>Tabelle1!$A$121:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4880,10 +4978,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$135:$B$141</c:f>
+              <c:f>Tabelle1!$B$121:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -4893,13 +4991,10 @@
                 <c:pt idx="2">
                   <c:v>14.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4911,7 +5006,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$134</c:f>
+              <c:f>Tabelle1!$C$120</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4962,28 +5057,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$135:$A$141</c:f>
+              <c:f>Tabelle1!$A$121:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -4991,10 +5080,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$135:$C$141</c:f>
+              <c:f>Tabelle1!$C$121:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -5002,19 +5091,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,12 +5113,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138769304"/>
-        <c:axId val="-2138766520"/>
+        <c:axId val="2122081608"/>
+        <c:axId val="2122084392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138769304"/>
+        <c:axId val="2122081608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5044,7 +5127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138766520"/>
+        <c:crossAx val="2122084392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5052,7 +5135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138766520"/>
+        <c:axId val="2122084392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138769304"/>
+        <c:crossAx val="2122081608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5144,7 +5227,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$148</c:f>
+              <c:f>Tabelle1!$B$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5156,28 +5239,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$149:$A$155</c:f>
+              <c:f>Tabelle1!$A$133:$A$137</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -5185,10 +5262,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$149:$B$155</c:f>
+              <c:f>Tabelle1!$B$133:$B$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -5198,13 +5275,10 @@
                 <c:pt idx="2">
                   <c:v>14.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5216,7 +5290,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$148</c:f>
+              <c:f>Tabelle1!$C$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5267,28 +5341,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$149:$A$155</c:f>
+              <c:f>Tabelle1!$A$133:$A$137</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Aktivitäten</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gateways</c:v>
+                  <c:v>Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sequenzfluss</c:v>
+                  <c:v>Sequenzfluss/Existenz</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Constraints</c:v>
+                  <c:v>Anzahl unterschiedliche Gateways/Constraints</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Summe Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anzahl unterschiedlicher Verbindungselemente</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Summe Elemente gesamt</c:v>
                 </c:pt>
               </c:strCache>
@@ -5296,10 +5364,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$149:$C$155</c:f>
+              <c:f>Tabelle1!$C$133:$C$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -5307,18 +5375,12 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5335,12 +5397,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2138728072"/>
-        <c:axId val="-2138725288"/>
+        <c:axId val="2122122840"/>
+        <c:axId val="2122125624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2138728072"/>
+        <c:axId val="2122122840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138725288"/>
+        <c:crossAx val="2122125624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5357,7 +5419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138725288"/>
+        <c:axId val="2122125624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,7 +5430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138728072"/>
+        <c:crossAx val="2122122840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5394,16 +5456,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5424,16 +5486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5456,14 +5518,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5486,13 +5548,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5516,13 +5578,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5546,13 +5608,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5574,16 +5636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5605,15 +5667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5636,13 +5698,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5666,13 +5728,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5696,13 +5758,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5726,13 +5788,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5756,13 +5818,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5785,15 +5847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5815,15 +5877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5844,16 +5906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>329</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5874,16 +5936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>330</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6192,10 +6254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6242,464 +6304,432 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <f>SUM(B10:B12)</f>
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C12)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
         <f>SUM(B9:B11)</f>
         <v>25</v>
       </c>
-      <c r="C15">
-        <f>SUM(C9:C12)</f>
-        <v>22</v>
+      <c r="C13">
+        <f>SUM(C9:C11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
     <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="A27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <f>SUM(B27:B29)</f>
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <f>SUM(C29)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
+        <f>SUM(B24:B26)</f>
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C24:C26)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <f>SUM(B26:B28)</f>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="C32">
-        <f>SUM(C26:C29)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B43:B45)</f>
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <f>SUM(C43:C45)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B47">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B63:B65)</f>
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <f>SUM(C63:C65)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="C47">
+      <c r="B81">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83">
         <v>5</v>
       </c>
-      <c r="B48">
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3">
+        <f>SUM(B81:B83)</f>
+        <v>9</v>
+      </c>
+      <c r="C85" s="3">
+        <f>SUM(C81:C83)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>17</v>
+      </c>
+      <c r="C104">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B48:B50)</f>
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <f>SUM(C50)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52">
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105">
         <v>1</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B53">
-        <f>SUM(B47:B49)</f>
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <f>SUM(C47:C50)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <f>SUM(B70:B72)</f>
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <f>SUM(C72)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75">
-        <f>SUM(B69:B71)</f>
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <f>SUM(C69:C72)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91">
-        <v>5</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <f>SUM(B90:B92)</f>
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <f>SUM(C92)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="3">
-        <f>SUM(B89:B92)</f>
-        <v>11</v>
-      </c>
-      <c r="C95" s="3">
-        <f>SUM(C89:C92)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>16</v>
+      <c r="B106" s="3">
+        <f>SUM(B102:B104)</f>
+        <v>29</v>
+      </c>
+      <c r="C106" s="3">
+        <f>SUM(C102:C104)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6723,1054 +6753,783 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="3">
+        <f>SUM(B112:B114)</f>
+        <v>19</v>
+      </c>
+      <c r="C116" s="3">
+        <f>SUM(C112:C114)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
         <v>6</v>
       </c>
-      <c r="C115">
+      <c r="C121">
         <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116">
-        <f>SUM(B113:B115)</f>
-        <v>25</v>
-      </c>
-      <c r="C116">
-        <f>SUM(C115)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="3">
-        <f>SUM(B112:B115)</f>
-        <v>29</v>
-      </c>
-      <c r="C118" s="3">
-        <f>SUM(C112:C115)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="B123" t="s">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
         <v>1</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="3">
+        <f>SUM(B121:B123)</f>
+        <v>22</v>
+      </c>
+      <c r="C125" s="3">
+        <f>SUM(C121:C123)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B124">
+      <c r="B133" s="3">
+        <v>6</v>
+      </c>
+      <c r="C133" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="3">
         <v>4</v>
       </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125">
+      <c r="C134" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126">
-        <v>11</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128">
-        <f>SUM(B125:B127)</f>
-        <v>15</v>
-      </c>
-      <c r="C128">
-        <f>SUM(C127)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="3">
-        <f>SUM(B124:B127)</f>
-        <v>19</v>
-      </c>
-      <c r="C130" s="3">
-        <f>SUM(C124:C127)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135">
+        <v>27</v>
+      </c>
+      <c r="B135" s="3">
+        <v>14</v>
+      </c>
+      <c r="C135" s="3">
         <v>6</v>
       </c>
-      <c r="C135">
-        <v>6</v>
-      </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136">
+      <c r="A136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+      <c r="C136" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137">
-        <v>14</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139">
-        <f>SUM(B136:B138)</f>
-        <v>16</v>
-      </c>
-      <c r="C139">
-        <f>SUM(C138)</f>
-        <v>6</v>
+      <c r="A137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="3">
+        <f>SUM(B133:B135)</f>
+        <v>24</v>
+      </c>
+      <c r="C137" s="3">
+        <f>SUM(C133:C135)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C140">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="3" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="3">
+        <v>18</v>
+      </c>
+      <c r="C144" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="3">
-        <f>SUM(B135:B138)</f>
-        <v>22</v>
-      </c>
-      <c r="C141" s="3">
-        <f>SUM(C135:C138)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="3" t="s">
+      <c r="B146" s="3">
+        <f>SUM(B142:B144)</f>
+        <v>28</v>
+      </c>
+      <c r="C146" s="3">
+        <f>SUM(C142:C144)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
         <v>19</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="3">
+      <c r="C158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>43</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
         <v>6</v>
       </c>
-      <c r="C149" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="3">
-        <v>4</v>
-      </c>
-      <c r="C150" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="3">
-        <v>14</v>
-      </c>
-      <c r="C151" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="3" t="s">
+      <c r="C161">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="3">
-        <f>SUM(B150:B152)</f>
-        <v>18</v>
-      </c>
-      <c r="C153" s="3">
-        <f>SUM(C150:C152)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="3">
-        <v>2</v>
-      </c>
-      <c r="C154" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="3">
-        <f>SUM(B149:B152)</f>
-        <v>24</v>
-      </c>
-      <c r="C155" s="3">
-        <f>SUM(C149:C152)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="3">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="3">
-        <v>2</v>
-      </c>
-      <c r="C161" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="3">
-        <v>18</v>
-      </c>
-      <c r="C162" s="3">
-        <v>0</v>
+      <c r="B162">
+        <f>SUM(B159:B161)</f>
+        <v>51</v>
+      </c>
+      <c r="C162">
+        <f>SUM(C159:C161)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="3">
+        <f>SUM(B158:B161)</f>
+        <v>70</v>
+      </c>
+      <c r="C164" s="3">
+        <f>SUM(C158:C161)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>26</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="3">
+        <f>SUM(B230:B232)</f>
+        <v>34</v>
+      </c>
+      <c r="C234" s="3">
+        <f>SUM(C230:C232)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="3">
+        <v>6</v>
+      </c>
+      <c r="C239" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240" s="3">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241" s="3">
+        <v>13</v>
+      </c>
+      <c r="C241" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="3">
+        <f>SUM(B239:B241)</f>
+        <v>23</v>
+      </c>
+      <c r="C243" s="3">
+        <f>SUM(C239:C241)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="B285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290">
+        <f>SUM(B286:B288)</f>
+        <v>23</v>
+      </c>
+      <c r="C290">
+        <f>SUM(C286:C288)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>9</v>
+      </c>
+      <c r="C302">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>26</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
         <v>8</v>
       </c>
-      <c r="B164" s="3">
-        <f>SUM(B161:B163)</f>
-        <v>20</v>
-      </c>
-      <c r="C164" s="3">
-        <f>SUM(C161:C163)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B165" s="3">
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>27</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305">
         <v>2</v>
       </c>
-      <c r="C165" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="3" t="s">
+      <c r="C305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B166" s="3">
-        <f>SUM(B160:B162)</f>
+      <c r="B306">
+        <f>SUM(B302:B304)</f>
+        <v>27</v>
+      </c>
+      <c r="C306">
+        <f>SUM(C302:C304)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317">
+        <v>12</v>
+      </c>
+      <c r="C317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318">
+        <v>6</v>
+      </c>
+      <c r="C318">
+        <v>13</v>
+      </c>
+      <c r="D318">
+        <v>18</v>
+      </c>
+      <c r="E318">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>27</v>
+      </c>
+      <c r="B319">
+        <v>26</v>
+      </c>
+      <c r="C319">
+        <v>7</v>
+      </c>
+      <c r="D319">
+        <v>26</v>
+      </c>
+      <c r="E319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C166" s="3">
-        <f>SUM(C160:C163)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="B177" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B320">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
+      <c r="C320">
         <v>4</v>
       </c>
-      <c r="B178">
-        <v>19</v>
-      </c>
-      <c r="C178">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179">
-        <v>8</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180">
-        <v>43</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182">
-        <f>SUM(B179:B181)</f>
-        <v>51</v>
-      </c>
-      <c r="C182">
-        <f>SUM(C179:C181)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="3" t="s">
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B184" s="3">
-        <f>SUM(B178:B181)</f>
-        <v>70</v>
-      </c>
-      <c r="C184" s="3">
-        <f>SUM(C178:C181)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="3"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
-        <v>4</v>
-      </c>
-      <c r="B250">
-        <v>10</v>
-      </c>
-      <c r="C250">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251">
-        <v>4</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
-        <v>7</v>
-      </c>
-      <c r="B252">
-        <v>20</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254">
-        <f>SUM(B251:B253)</f>
-        <v>24</v>
-      </c>
-      <c r="C254">
-        <f>SUM(C251:C253)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B255">
-        <v>2</v>
-      </c>
-      <c r="C255">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="3">
-        <f>SUM(B250:B253)</f>
-        <v>34</v>
-      </c>
-      <c r="C256" s="3">
-        <f>SUM(C250:C253)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" s="3">
-        <v>6</v>
-      </c>
-      <c r="C261" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="3">
-        <v>4</v>
-      </c>
-      <c r="C262" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B263" s="3">
-        <v>13</v>
-      </c>
-      <c r="C263" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B265" s="3">
-        <f>SUM(B262:B264)</f>
-        <v>17</v>
-      </c>
-      <c r="C265" s="3">
-        <f>SUM(C262:C264)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B266" s="3">
-        <v>2</v>
-      </c>
-      <c r="C266" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="3">
-        <f>SUM(B261:B263)</f>
-        <v>23</v>
-      </c>
-      <c r="C267" s="3">
-        <f>SUM(C261:C264)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="B309" t="s">
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" t="s">
-        <v>4</v>
-      </c>
-      <c r="B310">
-        <v>11</v>
-      </c>
-      <c r="C310">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" t="s">
-        <v>5</v>
-      </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-      <c r="C311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" t="s">
-        <v>7</v>
-      </c>
-      <c r="B312">
-        <v>12</v>
-      </c>
-      <c r="C312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" t="s">
-        <v>6</v>
-      </c>
-      <c r="C313">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" t="s">
-        <v>8</v>
-      </c>
-      <c r="B314">
-        <f>SUM(B311:B313)</f>
-        <v>12</v>
-      </c>
-      <c r="C314">
-        <f>SUM(C313)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316">
-        <f>SUM(B310:B312)</f>
-        <v>23</v>
-      </c>
-      <c r="C316">
-        <f>SUM(C310:C313)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="B327" t="s">
-        <v>1</v>
-      </c>
-      <c r="C327" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" t="s">
-        <v>4</v>
-      </c>
-      <c r="B328">
-        <v>9</v>
-      </c>
-      <c r="C328">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" t="s">
-        <v>5</v>
-      </c>
-      <c r="B329">
-        <v>3</v>
-      </c>
-      <c r="C329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" t="s">
-        <v>7</v>
-      </c>
-      <c r="B330">
-        <v>15</v>
-      </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" t="s">
-        <v>6</v>
-      </c>
-      <c r="C331">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" t="s">
-        <v>8</v>
-      </c>
-      <c r="B332">
-        <f>SUM(B329:B331)</f>
-        <v>18</v>
-      </c>
-      <c r="C332">
-        <f>SUM(C331)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B333">
-        <v>3</v>
-      </c>
-      <c r="C333">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B334">
-        <f>SUM(B328:B330)</f>
-        <v>27</v>
-      </c>
-      <c r="C334">
-        <f>SUM(C328:C331)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="B344" t="s">
-        <v>1</v>
-      </c>
-      <c r="C344" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" t="s">
-        <v>4</v>
-      </c>
-      <c r="B345">
-        <v>12</v>
-      </c>
-      <c r="C345">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" t="s">
-        <v>5</v>
-      </c>
-      <c r="B346">
-        <v>6</v>
-      </c>
-      <c r="C346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" t="s">
-        <v>7</v>
-      </c>
-      <c r="B347">
-        <v>26</v>
-      </c>
-      <c r="C347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" t="s">
-        <v>6</v>
-      </c>
-      <c r="C348">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" t="s">
-        <v>8</v>
-      </c>
-      <c r="B349">
-        <f>SUM(B346:B348)</f>
-        <v>32</v>
-      </c>
-      <c r="C349">
-        <f>SUM(C348)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B350">
-        <v>3</v>
-      </c>
-      <c r="C350">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B351">
-        <f>SUM(B345:B347)</f>
+      <c r="B321">
+        <f>SUM(B317:B319)</f>
         <v>44</v>
       </c>
-      <c r="C351">
-        <f>SUM(C345:C348)</f>
+      <c r="C321">
+        <f>SUM(C317:C319)</f>
         <v>32</v>
       </c>
     </row>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="31">
   <si>
     <t>Open Up</t>
   </si>
@@ -109,6 +109,12 @@
   <si>
     <t>Anzahl unterschiedliche Gateways/Constraints</t>
   </si>
+  <si>
+    <t>Scrumkog</t>
+  </si>
+  <si>
+    <t>Summe Elemente kognitiv gewichtet</t>
+  </si>
 </sst>
 </file>
 
@@ -184,8 +190,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="185">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -462,6 +474,9 @@
     <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +566,9 @@
     <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6254,10 +6272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7531,6 +7549,89 @@
       <c r="C321">
         <f>SUM(C317:C319)</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329">
+        <v>12</v>
+      </c>
+      <c r="C329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>26</v>
+      </c>
+      <c r="B330">
+        <v>6</v>
+      </c>
+      <c r="C330">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>27</v>
+      </c>
+      <c r="B331">
+        <v>26</v>
+      </c>
+      <c r="C331">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333">
+        <f>SUM(B329:B331)</f>
+        <v>44</v>
+      </c>
+      <c r="C333">
+        <f>SUM(C329:C331)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B334">
+        <f>B331+2*B330</f>
+        <v>38</v>
+      </c>
+      <c r="C334">
+        <f>C331+2*C330</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14680"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.92122703043737E-17"/>
+                  <c:x val="8.92122703043738E-17"/>
                   <c:y val="-0.0150375939849624"/>
                 </c:manualLayout>
               </c:layout>
@@ -760,7 +760,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043746E-17"/>
+                  <c:x val="-8.92122703043747E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -837,12 +837,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121751384"/>
-        <c:axId val="2121754168"/>
+        <c:axId val="2125328824"/>
+        <c:axId val="2125331800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121751384"/>
+        <c:axId val="2125328824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121754168"/>
+        <c:crossAx val="2125331800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -859,7 +859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121754168"/>
+        <c:axId val="2125331800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121751384"/>
+        <c:crossAx val="2125328824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,12 +1121,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122164552"/>
-        <c:axId val="2122167336"/>
+        <c:axId val="2124621000"/>
+        <c:axId val="2124618200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122164552"/>
+        <c:axId val="2124621000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122167336"/>
+        <c:crossAx val="2124618200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122167336"/>
+        <c:axId val="2124618200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122164552"/>
+        <c:crossAx val="2124621000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1363,12 +1363,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122203640"/>
-        <c:axId val="2122206616"/>
+        <c:axId val="2124582120"/>
+        <c:axId val="2124579128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122203640"/>
+        <c:axId val="2124582120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122206616"/>
+        <c:crossAx val="2124579128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122206616"/>
+        <c:axId val="2124579128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122203640"/>
+        <c:crossAx val="2124582120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,12 +1668,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122245112"/>
-        <c:axId val="2122247896"/>
+        <c:axId val="2124540648"/>
+        <c:axId val="2124537848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122245112"/>
+        <c:axId val="2124540648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122247896"/>
+        <c:crossAx val="2124537848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122247896"/>
+        <c:axId val="2124537848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122245112"/>
+        <c:crossAx val="2124540648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,7 +1890,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.46795452542676E-17"/>
+                  <c:x val="8.46795452542677E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1967,12 +1967,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122288088"/>
-        <c:axId val="2122290872"/>
+        <c:axId val="2124497864"/>
+        <c:axId val="2124495064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122288088"/>
+        <c:axId val="2124497864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122290872"/>
+        <c:crossAx val="2124495064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122290872"/>
+        <c:axId val="2124495064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122288088"/>
+        <c:crossAx val="2124497864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,12 +2281,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122347032"/>
-        <c:axId val="2122349816"/>
+        <c:axId val="2124454136"/>
+        <c:axId val="2124451336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122347032"/>
+        <c:axId val="2124454136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122349816"/>
+        <c:crossAx val="2124451336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122349816"/>
+        <c:axId val="2124451336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122347032"/>
+        <c:crossAx val="2124454136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,12 +2526,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122385928"/>
-        <c:axId val="2122388904"/>
+        <c:axId val="2124415784"/>
+        <c:axId val="2126970424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122385928"/>
+        <c:axId val="2124415784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,7 +2540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122388904"/>
+        <c:crossAx val="2126970424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2548,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122388904"/>
+        <c:axId val="2126970424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122385928"/>
+        <c:crossAx val="2124415784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,7 +2743,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.52703327792968E-17"/>
+                  <c:x val="-8.5270332779297E-17"/>
                   <c:y val="-0.0146252285191956"/>
                 </c:manualLayout>
               </c:layout>
@@ -2865,12 +2865,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122432440"/>
-        <c:axId val="2122435224"/>
+        <c:axId val="2127014088"/>
+        <c:axId val="2127016872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122432440"/>
+        <c:axId val="2127014088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122435224"/>
+        <c:crossAx val="2127016872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122435224"/>
+        <c:axId val="2127016872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,7 +2898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122432440"/>
+        <c:crossAx val="2127014088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3072,7 +3072,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.50724897798088E-17"/>
+                  <c:x val="-8.50724897798089E-17"/>
                   <c:y val="-0.0173160173160174"/>
                 </c:manualLayout>
               </c:layout>
@@ -3179,12 +3179,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122474104"/>
-        <c:axId val="2122476888"/>
+        <c:axId val="2127056952"/>
+        <c:axId val="2127059736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122474104"/>
+        <c:axId val="2127056952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122476888"/>
+        <c:crossAx val="2127059736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122476888"/>
+        <c:axId val="2127059736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122474104"/>
+        <c:crossAx val="2127056952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3421,12 +3421,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121833832"/>
-        <c:axId val="2121836808"/>
+        <c:axId val="2125365176"/>
+        <c:axId val="2125368152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121833832"/>
+        <c:axId val="2125365176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121836808"/>
+        <c:crossAx val="2125368152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121836808"/>
+        <c:axId val="2125368152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121833832"/>
+        <c:crossAx val="2125365176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3690,12 +3690,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121874696"/>
-        <c:axId val="2121877480"/>
+        <c:axId val="2125405800"/>
+        <c:axId val="2125408584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121874696"/>
+        <c:axId val="2125405800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121877480"/>
+        <c:crossAx val="2125408584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3712,7 +3712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121877480"/>
+        <c:axId val="2125408584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +3723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121874696"/>
+        <c:crossAx val="2125405800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3974,12 +3974,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121914296"/>
-        <c:axId val="2121917272"/>
+        <c:axId val="2125446792"/>
+        <c:axId val="2124868792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121914296"/>
+        <c:axId val="2125446792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121917272"/>
+        <c:crossAx val="2124868792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,7 +3996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121917272"/>
+        <c:axId val="2124868792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121914296"/>
+        <c:crossAx val="2125446792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,6 +4161,30 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0188679245283019"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$81:$A$85</c:f>
@@ -4219,12 +4243,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121954664"/>
-        <c:axId val="2121957640"/>
+        <c:axId val="2124832536"/>
+        <c:axId val="2124829544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121954664"/>
+        <c:axId val="2124832536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121957640"/>
+        <c:crossAx val="2124829544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4241,7 +4265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121957640"/>
+        <c:axId val="2124829544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +4276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121954664"/>
+        <c:crossAx val="2124832536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4408,6 +4432,21 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.42902140117186E-17"/>
+                  <c:y val="-0.0113636363636364"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
@@ -4518,12 +4557,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2121998440"/>
-        <c:axId val="2122001224"/>
+        <c:axId val="2124788952"/>
+        <c:axId val="2124786152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2121998440"/>
+        <c:axId val="2124788952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,7 +4571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122001224"/>
+        <c:crossAx val="2124786152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,7 +4579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122001224"/>
+        <c:axId val="2124786152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121998440"/>
+        <c:crossAx val="2124788952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4710,7 +4749,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4679545254267E-17"/>
+                  <c:x val="-8.46795452542671E-17"/>
                   <c:y val="-0.0160000000000001"/>
                 </c:manualLayout>
               </c:layout>
@@ -4725,7 +4764,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4679545254267E-17"/>
+                  <c:x val="-8.46795452542671E-17"/>
                   <c:y val="-0.012"/>
                 </c:manualLayout>
               </c:layout>
@@ -4847,12 +4886,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122039736"/>
-        <c:axId val="2122042520"/>
+        <c:axId val="2124744312"/>
+        <c:axId val="2124741512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122039736"/>
+        <c:axId val="2124744312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,7 +4900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122042520"/>
+        <c:crossAx val="2124741512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4869,7 +4908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122042520"/>
+        <c:axId val="2124741512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4880,7 +4919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122039736"/>
+        <c:crossAx val="2124744312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5131,12 +5170,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122081608"/>
-        <c:axId val="2122084392"/>
+        <c:axId val="2124703944"/>
+        <c:axId val="2124701144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122081608"/>
+        <c:axId val="2124703944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122084392"/>
+        <c:crossAx val="2124701144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122084392"/>
+        <c:axId val="2124701144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122081608"/>
+        <c:crossAx val="2124703944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5415,12 +5454,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2122122840"/>
-        <c:axId val="2122125624"/>
+        <c:axId val="2124662456"/>
+        <c:axId val="2124659656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2122122840"/>
+        <c:axId val="2124662456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122125624"/>
+        <c:crossAx val="2124659656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5437,7 +5476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122125624"/>
+        <c:axId val="2124659656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122122840"/>
+        <c:crossAx val="2124662456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5625,7 +5664,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6274,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -658,7 +657,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.92122703043738E-17"/>
+                  <c:x val="8.92122703043739E-17"/>
                   <c:y val="-0.0150375939849624"/>
                 </c:manualLayout>
               </c:layout>
@@ -760,7 +759,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043747E-17"/>
+                  <c:x val="-8.92122703043748E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -837,12 +836,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2125328824"/>
-        <c:axId val="2125331800"/>
+        <c:axId val="-2145309176"/>
+        <c:axId val="-2145306200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2125328824"/>
+        <c:axId val="-2145309176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125331800"/>
+        <c:crossAx val="-2145306200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -859,7 +858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125331800"/>
+        <c:axId val="-2145306200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,14 +869,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125328824"/>
+        <c:crossAx val="-2145309176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -922,7 +920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1121,12 +1118,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124621000"/>
-        <c:axId val="2124618200"/>
+        <c:axId val="-2145371000"/>
+        <c:axId val="-2142846696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124621000"/>
+        <c:axId val="-2145371000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124618200"/>
+        <c:crossAx val="-2142846696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124618200"/>
+        <c:axId val="-2142846696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,14 +1151,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124621000"/>
+        <c:crossAx val="-2145371000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1206,7 +1202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1363,12 +1358,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124582120"/>
-        <c:axId val="2124579128"/>
+        <c:axId val="-2140726856"/>
+        <c:axId val="-2144634344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124582120"/>
+        <c:axId val="-2140726856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124579128"/>
+        <c:crossAx val="-2144634344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124579128"/>
+        <c:axId val="-2144634344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,14 +1391,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124582120"/>
+        <c:crossAx val="-2140726856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1448,7 +1442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1668,12 +1661,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124540648"/>
-        <c:axId val="2124537848"/>
+        <c:axId val="2138853272"/>
+        <c:axId val="2138731896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124540648"/>
+        <c:axId val="2138853272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124537848"/>
+        <c:crossAx val="2138731896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124537848"/>
+        <c:axId val="2138731896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,14 +1694,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124540648"/>
+        <c:crossAx val="2138853272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1890,7 +1882,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.46795452542677E-17"/>
+                  <c:x val="8.46795452542678E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1967,12 +1959,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124497864"/>
-        <c:axId val="2124495064"/>
+        <c:axId val="-2145033592"/>
+        <c:axId val="-2128662280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124497864"/>
+        <c:axId val="-2145033592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124495064"/>
+        <c:crossAx val="-2128662280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +1981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124495064"/>
+        <c:axId val="-2128662280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +1992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124497864"/>
+        <c:crossAx val="-2145033592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,12 +2273,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124454136"/>
-        <c:axId val="2124451336"/>
+        <c:axId val="-2145330760"/>
+        <c:axId val="-2142836920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124454136"/>
+        <c:axId val="-2145330760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124451336"/>
+        <c:crossAx val="-2142836920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124451336"/>
+        <c:axId val="-2142836920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124454136"/>
+        <c:crossAx val="-2145330760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,12 +2518,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124415784"/>
-        <c:axId val="2126970424"/>
+        <c:axId val="-2140222392"/>
+        <c:axId val="-2128809896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124415784"/>
+        <c:axId val="-2140222392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126970424"/>
+        <c:crossAx val="-2128809896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2548,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126970424"/>
+        <c:axId val="-2128809896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124415784"/>
+        <c:crossAx val="-2140222392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,7 +2735,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5270332779297E-17"/>
+                  <c:x val="-8.52703327792971E-17"/>
                   <c:y val="-0.0146252285191956"/>
                 </c:manualLayout>
               </c:layout>
@@ -2865,12 +2857,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2127014088"/>
-        <c:axId val="2127016872"/>
+        <c:axId val="-2129280248"/>
+        <c:axId val="-2129277464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2127014088"/>
+        <c:axId val="-2129280248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127016872"/>
+        <c:crossAx val="-2129277464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127016872"/>
+        <c:axId val="-2129277464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,7 +2890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127014088"/>
+        <c:crossAx val="-2129280248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3072,7 +3064,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.50724897798089E-17"/>
+                  <c:x val="-8.5072489779809E-17"/>
                   <c:y val="-0.0173160173160174"/>
                 </c:manualLayout>
               </c:layout>
@@ -3179,12 +3171,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2127056952"/>
-        <c:axId val="2127059736"/>
+        <c:axId val="-2128840952"/>
+        <c:axId val="-2128840216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2127056952"/>
+        <c:axId val="-2128840952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127059736"/>
+        <c:crossAx val="-2128840216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127059736"/>
+        <c:axId val="-2128840216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127056952"/>
+        <c:crossAx val="-2128840952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3264,7 +3256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3421,12 +3412,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2125365176"/>
-        <c:axId val="2125368152"/>
+        <c:axId val="-2129249992"/>
+        <c:axId val="-2129247016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2125365176"/>
+        <c:axId val="-2129249992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125368152"/>
+        <c:crossAx val="-2129247016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125368152"/>
+        <c:axId val="-2129247016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,14 +3445,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125365176"/>
+        <c:crossAx val="-2129249992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3506,7 +3496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3690,12 +3679,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2125405800"/>
-        <c:axId val="2125408584"/>
+        <c:axId val="-2129203128"/>
+        <c:axId val="-2129194216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2125405800"/>
+        <c:axId val="-2129203128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125408584"/>
+        <c:crossAx val="-2129194216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3712,7 +3701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125408584"/>
+        <c:axId val="-2129194216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,14 +3712,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125405800"/>
+        <c:crossAx val="-2129203128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3775,7 +3763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3974,12 +3961,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2125446792"/>
-        <c:axId val="2124868792"/>
+        <c:axId val="-2129148984"/>
+        <c:axId val="-2129146200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2125446792"/>
+        <c:axId val="-2129148984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124868792"/>
+        <c:crossAx val="-2129146200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,7 +3983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124868792"/>
+        <c:axId val="-2129146200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,14 +3994,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125446792"/>
+        <c:crossAx val="-2129148984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4059,7 +4045,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4243,12 +4228,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124832536"/>
-        <c:axId val="2124829544"/>
+        <c:axId val="-2129118968"/>
+        <c:axId val="-2129116184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124832536"/>
+        <c:axId val="-2129118968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124829544"/>
+        <c:crossAx val="-2129116184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4265,7 +4250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124829544"/>
+        <c:axId val="-2129116184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,14 +4261,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124832536"/>
+        <c:crossAx val="-2129118968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4328,7 +4312,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4557,12 +4540,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124788952"/>
-        <c:axId val="2124786152"/>
+        <c:axId val="-2128901624"/>
+        <c:axId val="-2128898840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124788952"/>
+        <c:axId val="-2128901624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +4554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124786152"/>
+        <c:crossAx val="-2128898840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4579,7 +4562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124786152"/>
+        <c:axId val="-2128898840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,14 +4573,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124788952"/>
+        <c:crossAx val="-2128901624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4642,7 +4624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4749,7 +4730,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.46795452542671E-17"/>
+                  <c:x val="-8.46795452542672E-17"/>
                   <c:y val="-0.0160000000000001"/>
                 </c:manualLayout>
               </c:layout>
@@ -4764,7 +4745,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.46795452542671E-17"/>
+                  <c:x val="-8.46795452542672E-17"/>
                   <c:y val="-0.012"/>
                 </c:manualLayout>
               </c:layout>
@@ -4886,12 +4867,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124744312"/>
-        <c:axId val="2124741512"/>
+        <c:axId val="-2142295912"/>
+        <c:axId val="-2143031992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124744312"/>
+        <c:axId val="-2142295912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +4881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124741512"/>
+        <c:crossAx val="-2143031992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4908,7 +4889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124741512"/>
+        <c:axId val="-2143031992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,14 +4900,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124744312"/>
+        <c:crossAx val="-2142295912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4971,7 +4951,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5170,12 +5149,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124703944"/>
-        <c:axId val="2124701144"/>
+        <c:axId val="-2128664760"/>
+        <c:axId val="-2140190600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124703944"/>
+        <c:axId val="-2128664760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5184,7 +5163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124701144"/>
+        <c:crossAx val="-2140190600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5192,7 +5171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124701144"/>
+        <c:axId val="-2140190600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5203,14 +5182,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124703944"/>
+        <c:crossAx val="-2128664760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5255,7 +5233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5454,12 +5431,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2124662456"/>
-        <c:axId val="2124659656"/>
+        <c:axId val="-2144418024"/>
+        <c:axId val="-2128780408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2124662456"/>
+        <c:axId val="-2144418024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5468,7 +5445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124659656"/>
+        <c:crossAx val="-2128780408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5476,7 +5453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124659656"/>
+        <c:axId val="-2128780408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,14 +5464,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124662456"/>
+        <c:crossAx val="-2144418024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6313,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -614,6 +614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -657,7 +658,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.92122703043739E-17"/>
+                  <c:x val="8.9212270304374E-17"/>
                   <c:y val="-0.0150375939849624"/>
                 </c:manualLayout>
               </c:layout>
@@ -759,7 +760,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.92122703043748E-17"/>
+                  <c:x val="-8.92122703043749E-17"/>
                   <c:y val="-0.00714285714285714"/>
                 </c:manualLayout>
               </c:layout>
@@ -836,12 +837,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2145309176"/>
-        <c:axId val="-2145306200"/>
+        <c:axId val="2106137336"/>
+        <c:axId val="2106140184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2145309176"/>
+        <c:axId val="2106137336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145306200"/>
+        <c:crossAx val="2106140184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -858,7 +859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145306200"/>
+        <c:axId val="2106140184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,13 +870,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145309176"/>
+        <c:crossAx val="2106137336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -920,6 +922,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -991,16 +994,16 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,16 +1096,16 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,12 +1121,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2145371000"/>
-        <c:axId val="-2142846696"/>
+        <c:axId val="2078666264"/>
+        <c:axId val="2078669048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2145371000"/>
+        <c:axId val="2078666264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142846696"/>
+        <c:crossAx val="2078669048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142846696"/>
+        <c:axId val="2078669048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,13 +1154,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145371000"/>
+        <c:crossAx val="2078666264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1202,6 +1206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1358,12 +1363,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2140726856"/>
-        <c:axId val="-2144634344"/>
+        <c:axId val="2078772824"/>
+        <c:axId val="2078775800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2140726856"/>
+        <c:axId val="2078772824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144634344"/>
+        <c:crossAx val="2078775800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144634344"/>
+        <c:axId val="2078775800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,13 +1396,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140726856"/>
+        <c:crossAx val="2078772824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1442,6 +1448,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1661,12 +1668,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2138853272"/>
-        <c:axId val="2138731896"/>
+        <c:axId val="2078814616"/>
+        <c:axId val="2078817400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2138853272"/>
+        <c:axId val="2078814616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138731896"/>
+        <c:crossAx val="2078817400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,7 +1690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138731896"/>
+        <c:axId val="2078817400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,13 +1701,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138853272"/>
+        <c:crossAx val="2078814616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1882,7 +1890,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.46795452542678E-17"/>
+                  <c:x val="8.46795452542679E-17"/>
                   <c:y val="-0.0181488203266788"/>
                 </c:manualLayout>
               </c:layout>
@@ -1959,12 +1967,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2145033592"/>
-        <c:axId val="-2128662280"/>
+        <c:axId val="2078722696"/>
+        <c:axId val="2078725480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2145033592"/>
+        <c:axId val="2078722696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128662280"/>
+        <c:crossAx val="2078725480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128662280"/>
+        <c:axId val="2078725480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145033592"/>
+        <c:crossAx val="2078722696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,12 +2281,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2145330760"/>
-        <c:axId val="-2142836920"/>
+        <c:axId val="2073046168"/>
+        <c:axId val="2078853288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2145330760"/>
+        <c:axId val="2073046168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142836920"/>
+        <c:crossAx val="2078853288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142836920"/>
+        <c:axId val="2078853288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145330760"/>
+        <c:crossAx val="2073046168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2518,12 +2526,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2140222392"/>
-        <c:axId val="-2128809896"/>
+        <c:axId val="2078888840"/>
+        <c:axId val="2078891816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2140222392"/>
+        <c:axId val="2078888840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128809896"/>
+        <c:crossAx val="2078891816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2540,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128809896"/>
+        <c:axId val="2078891816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140222392"/>
+        <c:crossAx val="2078888840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2603,7 +2611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2735,7 +2742,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.52703327792971E-17"/>
+                  <c:x val="-8.52703327792972E-17"/>
                   <c:y val="-0.0146252285191956"/>
                 </c:manualLayout>
               </c:layout>
@@ -2857,12 +2864,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2129280248"/>
-        <c:axId val="-2129277464"/>
+        <c:axId val="2078935496"/>
+        <c:axId val="2078938280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2129280248"/>
+        <c:axId val="2078935496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129277464"/>
+        <c:crossAx val="2078938280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +2886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129277464"/>
+        <c:axId val="2078938280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,14 +2897,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129280248"/>
+        <c:crossAx val="2078935496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2942,7 +2948,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3064,7 +3069,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5072489779809E-17"/>
+                  <c:x val="-8.50724897798091E-17"/>
                   <c:y val="-0.0173160173160174"/>
                 </c:manualLayout>
               </c:layout>
@@ -3171,12 +3176,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2128840952"/>
-        <c:axId val="-2128840216"/>
+        <c:axId val="2078978360"/>
+        <c:axId val="2078981144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2128840952"/>
+        <c:axId val="2078978360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128840216"/>
+        <c:crossAx val="2078981144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3193,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128840216"/>
+        <c:axId val="2078981144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,14 +3209,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128840952"/>
+        <c:crossAx val="2078978360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3256,6 +3260,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3412,12 +3417,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2129249992"/>
-        <c:axId val="-2129247016"/>
+        <c:axId val="2072673384"/>
+        <c:axId val="2072676360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2129249992"/>
+        <c:axId val="2072673384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129247016"/>
+        <c:crossAx val="2072676360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129247016"/>
+        <c:axId val="2072676360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,13 +3450,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129249992"/>
+        <c:crossAx val="2072673384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3496,6 +3502,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3679,12 +3686,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2129203128"/>
-        <c:axId val="-2129194216"/>
+        <c:axId val="2072713992"/>
+        <c:axId val="2072716776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2129203128"/>
+        <c:axId val="2072713992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129194216"/>
+        <c:crossAx val="2072716776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3701,7 +3708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129194216"/>
+        <c:axId val="2072716776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,13 +3719,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129203128"/>
+        <c:crossAx val="2072713992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3763,6 +3771,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3961,12 +3970,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2129148984"/>
-        <c:axId val="-2129146200"/>
+        <c:axId val="2072754984"/>
+        <c:axId val="2072757768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2129148984"/>
+        <c:axId val="2072754984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +3984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129146200"/>
+        <c:crossAx val="2072757768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3983,7 +3992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129146200"/>
+        <c:axId val="2072757768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,13 +4003,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129148984"/>
+        <c:crossAx val="2072754984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4045,6 +4055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4228,12 +4239,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2129118968"/>
-        <c:axId val="-2129116184"/>
+        <c:axId val="2072795144"/>
+        <c:axId val="2072797928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2129118968"/>
+        <c:axId val="2072795144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129116184"/>
+        <c:crossAx val="2072797928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4250,7 +4261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129116184"/>
+        <c:axId val="2072797928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,13 +4272,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129118968"/>
+        <c:crossAx val="2072795144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4312,6 +4324,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4540,12 +4553,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2128901624"/>
-        <c:axId val="-2128898840"/>
+        <c:axId val="2073376232"/>
+        <c:axId val="2073178920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2128901624"/>
+        <c:axId val="2073376232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128898840"/>
+        <c:crossAx val="2073178920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4562,7 +4575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128898840"/>
+        <c:axId val="2073178920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,13 +4586,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128901624"/>
+        <c:crossAx val="2073376232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4624,6 +4638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4730,7 +4745,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.46795452542672E-17"/>
+                  <c:x val="-8.46795452542673E-17"/>
                   <c:y val="-0.0160000000000001"/>
                 </c:manualLayout>
               </c:layout>
@@ -4745,7 +4760,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.46795452542672E-17"/>
+                  <c:x val="-8.46795452542673E-17"/>
                   <c:y val="-0.012"/>
                 </c:manualLayout>
               </c:layout>
@@ -4867,12 +4882,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2142295912"/>
-        <c:axId val="-2143031992"/>
+        <c:axId val="2066707480"/>
+        <c:axId val="2066698920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2142295912"/>
+        <c:axId val="2066707480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143031992"/>
+        <c:crossAx val="2066698920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4889,7 +4904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143031992"/>
+        <c:axId val="2066698920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,13 +4915,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142295912"/>
+        <c:crossAx val="2066707480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4951,6 +4967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5149,12 +5166,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2128664760"/>
-        <c:axId val="-2140190600"/>
+        <c:axId val="2073252088"/>
+        <c:axId val="2073254872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2128664760"/>
+        <c:axId val="2073252088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,7 +5180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140190600"/>
+        <c:crossAx val="2073254872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140190600"/>
+        <c:axId val="2073254872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5182,13 +5199,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128664760"/>
+        <c:crossAx val="2073252088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5233,6 +5251,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5431,12 +5450,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2144418024"/>
-        <c:axId val="-2128780408"/>
+        <c:axId val="2078675848"/>
+        <c:axId val="2078678632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2144418024"/>
+        <c:axId val="2078675848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5445,7 +5464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128780408"/>
+        <c:crossAx val="2078678632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5453,7 +5472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128780408"/>
+        <c:axId val="2078678632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,13 +5483,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144418024"/>
+        <c:crossAx val="2078675848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6289,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7005,10 +7025,10 @@
         <v>26</v>
       </c>
       <c r="B143" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -7016,7 +7036,7 @@
         <v>27</v>
       </c>
       <c r="B144" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144" s="3">
         <v>8</v>
@@ -7030,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -7039,11 +7059,11 @@
       </c>
       <c r="B146" s="3">
         <f>SUM(B142:B144)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C146" s="3">
         <f>SUM(C142:C144)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
